--- a/Data_frame/balancos_definitivos/CPFP4.xlsx
+++ b/Data_frame/balancos_definitivos/CPFP4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN80"/>
+  <dimension ref="A1:BI80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,325 +441,300 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2008</t>
+          <t>31/12/2008</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2008</t>
+          <t>31/03/2009</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>30/06/2009</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2008</t>
+          <t>30/09/2009</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2009</t>
+          <t>31/12/2009</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2009</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2009</t>
+          <t>30/06/2010</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2009</t>
+          <t>30/09/2010</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>31/12/2010</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2010</t>
+          <t>31/03/2011</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2010</t>
+          <t>30/06/2011</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2010</t>
+          <t>30/09/2011</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2011</t>
+          <t>31/12/2011</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2011</t>
+          <t>31/03/2012</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2011</t>
+          <t>30/06/2012</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2011</t>
+          <t>30/09/2012</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2012</t>
+          <t>31/12/2012</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2012</t>
+          <t>31/03/2013</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2012</t>
+          <t>30/06/2013</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2012</t>
+          <t>30/09/2013</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2013</t>
+          <t>31/12/2013</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2013</t>
+          <t>31/03/2014</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2013</t>
+          <t>30/09/2014</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2014</t>
+          <t>31/12/2014</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>31/03/2015</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2014</t>
+          <t>30/06/2015</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>30/09/2015</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2015</t>
+          <t>31/12/2015</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2015</t>
+          <t>31/03/2016</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2015</t>
+          <t>30/06/2016</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2015</t>
+          <t>30/09/2016</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2016</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2016</t>
+          <t>31/03/2017</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2016</t>
+          <t>30/06/2017</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>30/09/2017</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2017</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2017</t>
+          <t>31/03/2018</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2017</t>
+          <t>30/06/2018</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>30/09/2018</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2018</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2018</t>
+          <t>31/03/2019</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2018</t>
+          <t>30/06/2019</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>30/09/2019</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2019</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2019</t>
+          <t>31/03/2020</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2019</t>
+          <t>30/06/2020</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>30/09/2020</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2020</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2020</t>
+          <t>31/03/2021</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2020</t>
+          <t>30/06/2021</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>30/09/2021</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2021</t>
+          <t>31/03/2022</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2021</t>
+          <t>30/09/2022</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/03/2023</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>31/03/2022</t>
+          <t>30/06/2023</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>30/06/2022</t>
+          <t>30/09/2023</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2022</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2023</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2023</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2023</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>31/03/2024</t>
         </is>
@@ -772,49 +747,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1738832</v>
+        <v>1811056</v>
       </c>
       <c r="C2" t="n">
-        <v>1724141.056</v>
+        <v>1817668.992</v>
       </c>
       <c r="D2" t="n">
-        <v>1759680</v>
+        <v>1754769.024</v>
       </c>
       <c r="E2" t="n">
-        <v>1811056</v>
+        <v>1776907.008</v>
       </c>
       <c r="F2" t="n">
-        <v>1817668.992</v>
+        <v>1930416</v>
       </c>
       <c r="G2" t="n">
-        <v>1754769.024</v>
+        <v>1904615.936</v>
       </c>
       <c r="H2" t="n">
-        <v>1776907.008</v>
+        <v>1864402.944</v>
       </c>
       <c r="I2" t="n">
-        <v>1930416</v>
+        <v>1867072</v>
       </c>
       <c r="J2" t="n">
-        <v>1904615.936</v>
+        <v>2235604.992</v>
       </c>
       <c r="K2" t="n">
-        <v>1864402.944</v>
+        <v>2217862.912</v>
       </c>
       <c r="L2" t="n">
-        <v>1867072</v>
+        <v>2265442.048</v>
       </c>
       <c r="M2" t="n">
-        <v>2235604.992</v>
+        <v>2274137.088</v>
       </c>
       <c r="N2" t="n">
-        <v>2217862.912</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2265442.048</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2274137.088</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -898,73 +873,58 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>4016713.984</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>4160902.912</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>4073041.92</v>
       </c>
       <c r="AU2" t="n">
-        <v>4016713.984</v>
+        <v>4502219.776</v>
       </c>
       <c r="AV2" t="n">
-        <v>4160902.912</v>
+        <v>4713357.824</v>
       </c>
       <c r="AW2" t="n">
-        <v>4073041.92</v>
+        <v>4819560.96</v>
       </c>
       <c r="AX2" t="n">
-        <v>4502219.776</v>
+        <v>4740639.744</v>
       </c>
       <c r="AY2" t="n">
-        <v>4713357.824</v>
+        <v>4944547.84</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4819560.96</v>
+        <v>6542402.048</v>
       </c>
       <c r="BA2" t="n">
-        <v>4740639.744</v>
+        <v>7527629.824</v>
       </c>
       <c r="BB2" t="n">
-        <v>4944547.84</v>
+        <v>7348170.24</v>
       </c>
       <c r="BC2" t="n">
-        <v>6542402.048</v>
+        <v>7121232.896</v>
       </c>
       <c r="BD2" t="n">
-        <v>7527629.824</v>
+        <v>7122402.816</v>
       </c>
       <c r="BE2" t="n">
-        <v>14881271.808</v>
+        <v>7252584.96</v>
       </c>
       <c r="BF2" t="n">
-        <v>7348170.24</v>
+        <v>7405043.2</v>
       </c>
       <c r="BG2" t="n">
-        <v>14973973.504</v>
+        <v>7451621.888</v>
       </c>
       <c r="BH2" t="n">
-        <v>7121232.896</v>
+        <v>7774801.92</v>
       </c>
       <c r="BI2" t="n">
-        <v>7122402.816</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>7252584.96</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>7405043.2</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>18500421.632</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>16762376.192</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>16639265.792</v>
+        <v>7787472.896</v>
       </c>
     </row>
     <row r="3">
@@ -974,49 +934,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>672620.032</v>
+        <v>666024</v>
       </c>
       <c r="C3" t="n">
-        <v>679441.024</v>
+        <v>686483.968</v>
       </c>
       <c r="D3" t="n">
-        <v>689548.032</v>
+        <v>667777.024</v>
       </c>
       <c r="E3" t="n">
-        <v>666024</v>
+        <v>712113.9840000001</v>
       </c>
       <c r="F3" t="n">
-        <v>686483.968</v>
+        <v>836905.024</v>
       </c>
       <c r="G3" t="n">
-        <v>667777.024</v>
+        <v>797774.0159999999</v>
       </c>
       <c r="H3" t="n">
-        <v>712113.9840000001</v>
+        <v>702126.976</v>
       </c>
       <c r="I3" t="n">
-        <v>836905.024</v>
+        <v>640993.024</v>
       </c>
       <c r="J3" t="n">
-        <v>797774.0159999999</v>
+        <v>802019.008</v>
       </c>
       <c r="K3" t="n">
-        <v>702126.976</v>
+        <v>765603.008</v>
       </c>
       <c r="L3" t="n">
-        <v>640993.024</v>
+        <v>779753.024</v>
       </c>
       <c r="M3" t="n">
-        <v>802019.008</v>
+        <v>736140.992</v>
       </c>
       <c r="N3" t="n">
-        <v>765603.008</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>779753.024</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>736140.992</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1100,73 +1060,58 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>1403556.992</v>
       </c>
       <c r="AS3" t="n">
-        <v>0</v>
+        <v>1505662.976</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>1324781.952</v>
       </c>
       <c r="AU3" t="n">
-        <v>1403556.992</v>
+        <v>1618193.024</v>
       </c>
       <c r="AV3" t="n">
-        <v>1505662.976</v>
+        <v>1915324.032</v>
       </c>
       <c r="AW3" t="n">
-        <v>1324781.952</v>
+        <v>1928899.968</v>
       </c>
       <c r="AX3" t="n">
-        <v>1618193.024</v>
+        <v>1629969.024</v>
       </c>
       <c r="AY3" t="n">
-        <v>1915324.032</v>
+        <v>1805133.952</v>
       </c>
       <c r="AZ3" t="n">
-        <v>1928899.968</v>
+        <v>1547410.048</v>
       </c>
       <c r="BA3" t="n">
-        <v>1629969.024</v>
+        <v>2400157.952</v>
       </c>
       <c r="BB3" t="n">
-        <v>1805133.952</v>
+        <v>2125700.992</v>
       </c>
       <c r="BC3" t="n">
-        <v>1547410.048</v>
+        <v>1932740.992</v>
       </c>
       <c r="BD3" t="n">
-        <v>2400157.952</v>
+        <v>1666018.048</v>
       </c>
       <c r="BE3" t="n">
-        <v>1737774.976</v>
+        <v>2000958.976</v>
       </c>
       <c r="BF3" t="n">
-        <v>2125700.992</v>
+        <v>2201550.08</v>
       </c>
       <c r="BG3" t="n">
-        <v>2085838.976</v>
+        <v>2070694.016</v>
       </c>
       <c r="BH3" t="n">
-        <v>1932740.992</v>
+        <v>2283896.064</v>
       </c>
       <c r="BI3" t="n">
-        <v>1666018.048</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>2000958.976</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>2201550.08</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>3563513.088</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>2305355.008</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>2318350.08</v>
+        <v>2160232.96</v>
       </c>
     </row>
     <row r="4">
@@ -1176,49 +1121,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103310</v>
+        <v>107524</v>
       </c>
       <c r="C4" t="n">
-        <v>131055</v>
+        <v>82244</v>
       </c>
       <c r="D4" t="n">
-        <v>103714</v>
+        <v>79241</v>
       </c>
       <c r="E4" t="n">
-        <v>107524</v>
+        <v>118488</v>
       </c>
       <c r="F4" t="n">
-        <v>82244</v>
+        <v>298235.008</v>
       </c>
       <c r="G4" t="n">
-        <v>79241</v>
+        <v>231455.008</v>
       </c>
       <c r="H4" t="n">
-        <v>118488</v>
+        <v>132568</v>
       </c>
       <c r="I4" t="n">
-        <v>298235.008</v>
+        <v>79254</v>
       </c>
       <c r="J4" t="n">
-        <v>231455.008</v>
+        <v>359718.016</v>
       </c>
       <c r="K4" t="n">
-        <v>132568</v>
+        <v>264719.008</v>
       </c>
       <c r="L4" t="n">
-        <v>79254</v>
+        <v>305987.008</v>
       </c>
       <c r="M4" t="n">
-        <v>359718.016</v>
+        <v>215195.008</v>
       </c>
       <c r="N4" t="n">
-        <v>264719.008</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>305987.008</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>215195.008</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1302,73 +1247,58 @@
         <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>327996</v>
       </c>
       <c r="AS4" t="n">
-        <v>0</v>
+        <v>314961.984</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>237019.008</v>
       </c>
       <c r="AU4" t="n">
-        <v>327996</v>
+        <v>661510.0159999999</v>
       </c>
       <c r="AV4" t="n">
-        <v>314961.984</v>
+        <v>779510.976</v>
       </c>
       <c r="AW4" t="n">
-        <v>237019.008</v>
+        <v>805889.024</v>
       </c>
       <c r="AX4" t="n">
-        <v>661510.0159999999</v>
+        <v>438679.008</v>
       </c>
       <c r="AY4" t="n">
-        <v>779510.976</v>
+        <v>585942.976</v>
       </c>
       <c r="AZ4" t="n">
-        <v>805889.024</v>
+        <v>376265.984</v>
       </c>
       <c r="BA4" t="n">
-        <v>438679.008</v>
+        <v>787985.9840000001</v>
       </c>
       <c r="BB4" t="n">
-        <v>585942.976</v>
+        <v>405360.992</v>
       </c>
       <c r="BC4" t="n">
-        <v>376265.984</v>
+        <v>598179.008</v>
       </c>
       <c r="BD4" t="n">
-        <v>787985.9840000001</v>
+        <v>257910</v>
       </c>
       <c r="BE4" t="n">
-        <v>343113.984</v>
+        <v>372251.008</v>
       </c>
       <c r="BF4" t="n">
-        <v>405360.992</v>
+        <v>573699.008</v>
       </c>
       <c r="BG4" t="n">
-        <v>720566.976</v>
+        <v>622185.024</v>
       </c>
       <c r="BH4" t="n">
-        <v>598179.008</v>
+        <v>562521.9840000001</v>
       </c>
       <c r="BI4" t="n">
-        <v>257910</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>372251.008</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>573699.008</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>2204478.976</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>856924.992</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>678942.0159999999</v>
+        <v>335697.984</v>
       </c>
     </row>
     <row r="5">
@@ -1510,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>100105</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1519,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="AW5" t="n">
-        <v>100105</v>
+        <v>0</v>
       </c>
       <c r="AX5" t="n">
         <v>0</v>
@@ -1543,34 +1473,19 @@
         <v>0</v>
       </c>
       <c r="BE5" t="n">
-        <v>474168.992</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
         <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>379560.992</v>
+        <v>0</v>
       </c>
       <c r="BH5" t="n">
-        <v>0</v>
+        <v>143211.008</v>
       </c>
       <c r="BI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>208774</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>238746</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>515081.984</v>
+        <v>54478</v>
       </c>
     </row>
     <row r="6">
@@ -1580,49 +1495,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>548025.024</v>
+        <v>546651.008</v>
       </c>
       <c r="C6" t="n">
-        <v>528107.008</v>
+        <v>591028.992</v>
       </c>
       <c r="D6" t="n">
-        <v>567913.9840000001</v>
+        <v>580113.024</v>
       </c>
       <c r="E6" t="n">
-        <v>546651.008</v>
+        <v>584131.008</v>
       </c>
       <c r="F6" t="n">
-        <v>591028.992</v>
+        <v>525347.008</v>
       </c>
       <c r="G6" t="n">
-        <v>580113.024</v>
+        <v>551972.992</v>
       </c>
       <c r="H6" t="n">
-        <v>584131.008</v>
+        <v>554392</v>
       </c>
       <c r="I6" t="n">
-        <v>525347.008</v>
+        <v>546193.9840000001</v>
       </c>
       <c r="J6" t="n">
-        <v>551972.992</v>
+        <v>385499.008</v>
       </c>
       <c r="K6" t="n">
-        <v>554392</v>
+        <v>405889.984</v>
       </c>
       <c r="L6" t="n">
-        <v>546193.9840000001</v>
+        <v>381385.984</v>
       </c>
       <c r="M6" t="n">
-        <v>385499.008</v>
+        <v>367622.016</v>
       </c>
       <c r="N6" t="n">
-        <v>405889.984</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>381385.984</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>367622.016</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -1706,73 +1621,58 @@
         <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>760920</v>
       </c>
       <c r="AS6" t="n">
-        <v>0</v>
+        <v>834140.032</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>766152</v>
       </c>
       <c r="AU6" t="n">
-        <v>760920</v>
+        <v>730211.968</v>
       </c>
       <c r="AV6" t="n">
-        <v>834140.032</v>
+        <v>662675.968</v>
       </c>
       <c r="AW6" t="n">
-        <v>766152</v>
+        <v>694414.0159999999</v>
       </c>
       <c r="AX6" t="n">
-        <v>730211.968</v>
+        <v>901923.968</v>
       </c>
       <c r="AY6" t="n">
-        <v>662675.968</v>
+        <v>803891.008</v>
       </c>
       <c r="AZ6" t="n">
-        <v>694414.0159999999</v>
+        <v>793003.008</v>
       </c>
       <c r="BA6" t="n">
-        <v>901923.968</v>
+        <v>826385.9840000001</v>
       </c>
       <c r="BB6" t="n">
-        <v>803891.008</v>
+        <v>911793.024</v>
       </c>
       <c r="BC6" t="n">
-        <v>793003.008</v>
+        <v>652081.9840000001</v>
       </c>
       <c r="BD6" t="n">
-        <v>826385.9840000001</v>
+        <v>743859.968</v>
       </c>
       <c r="BE6" t="n">
-        <v>471044.992</v>
+        <v>861438.0159999999</v>
       </c>
       <c r="BF6" t="n">
-        <v>911793.024</v>
+        <v>771491.008</v>
       </c>
       <c r="BG6" t="n">
-        <v>494988.992</v>
+        <v>817929.024</v>
       </c>
       <c r="BH6" t="n">
-        <v>652081.9840000001</v>
+        <v>899622.976</v>
       </c>
       <c r="BI6" t="n">
-        <v>743859.968</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>861438.0159999999</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>771491.008</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>762435.008</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>786724.992</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>756856</v>
+        <v>957075.968</v>
       </c>
     </row>
     <row r="7">
@@ -1782,49 +1682,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1408</v>
+        <v>1428</v>
       </c>
       <c r="C7" t="n">
-        <v>1438</v>
+        <v>1527</v>
       </c>
       <c r="D7" t="n">
-        <v>1484</v>
+        <v>1466</v>
       </c>
       <c r="E7" t="n">
-        <v>1428</v>
+        <v>1655</v>
       </c>
       <c r="F7" t="n">
-        <v>1527</v>
+        <v>1914</v>
       </c>
       <c r="G7" t="n">
-        <v>1466</v>
+        <v>1779</v>
       </c>
       <c r="H7" t="n">
-        <v>1655</v>
+        <v>1742</v>
       </c>
       <c r="I7" t="n">
-        <v>1914</v>
+        <v>2338</v>
       </c>
       <c r="J7" t="n">
-        <v>1779</v>
+        <v>3313</v>
       </c>
       <c r="K7" t="n">
-        <v>1742</v>
+        <v>2784</v>
       </c>
       <c r="L7" t="n">
-        <v>2338</v>
+        <v>4042</v>
       </c>
       <c r="M7" t="n">
-        <v>3313</v>
+        <v>4439</v>
       </c>
       <c r="N7" t="n">
-        <v>2784</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>4042</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>4439</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1908,73 +1808,58 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>4434</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>4244</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>3918</v>
       </c>
       <c r="AU7" t="n">
-        <v>4434</v>
+        <v>4170</v>
       </c>
       <c r="AV7" t="n">
-        <v>4244</v>
+        <v>4458</v>
       </c>
       <c r="AW7" t="n">
-        <v>3918</v>
+        <v>4318</v>
       </c>
       <c r="AX7" t="n">
-        <v>4170</v>
+        <v>3555</v>
       </c>
       <c r="AY7" t="n">
-        <v>4458</v>
+        <v>4520</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4318</v>
+        <v>4648</v>
       </c>
       <c r="BA7" t="n">
-        <v>3555</v>
+        <v>4593</v>
       </c>
       <c r="BB7" t="n">
-        <v>4520</v>
+        <v>6096</v>
       </c>
       <c r="BC7" t="n">
-        <v>4648</v>
+        <v>8117</v>
       </c>
       <c r="BD7" t="n">
-        <v>4593</v>
+        <v>7219</v>
       </c>
       <c r="BE7" t="n">
-        <v>0</v>
+        <v>7692</v>
       </c>
       <c r="BF7" t="n">
-        <v>6096</v>
+        <v>6437</v>
       </c>
       <c r="BG7" t="n">
-        <v>0</v>
+        <v>6141</v>
       </c>
       <c r="BH7" t="n">
-        <v>8117</v>
+        <v>5938</v>
       </c>
       <c r="BI7" t="n">
-        <v>7219</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>7692</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>6437</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>68638</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>0</v>
+        <v>5779</v>
       </c>
     </row>
     <row r="8">
@@ -2163,21 +2048,6 @@
       <c r="BI8" t="n">
         <v>0</v>
       </c>
-      <c r="BJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2210,25 +2080,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>34564</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>41670</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>32167</v>
       </c>
       <c r="M9" t="n">
-        <v>34564</v>
+        <v>30478</v>
       </c>
       <c r="N9" t="n">
-        <v>41670</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>32167</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>30478</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -2312,73 +2182,58 @@
         <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>39174</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>38870</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>26143</v>
       </c>
       <c r="AU9" t="n">
-        <v>39174</v>
+        <v>55281</v>
       </c>
       <c r="AV9" t="n">
-        <v>38870</v>
+        <v>60717</v>
       </c>
       <c r="AW9" t="n">
-        <v>26143</v>
+        <v>49738</v>
       </c>
       <c r="AX9" t="n">
-        <v>55281</v>
+        <v>23755</v>
       </c>
       <c r="AY9" t="n">
-        <v>60717</v>
+        <v>36295</v>
       </c>
       <c r="AZ9" t="n">
-        <v>49738</v>
+        <v>29395</v>
       </c>
       <c r="BA9" t="n">
-        <v>23755</v>
+        <v>35946</v>
       </c>
       <c r="BB9" t="n">
-        <v>36295</v>
+        <v>312191.008</v>
       </c>
       <c r="BC9" t="n">
-        <v>29395</v>
+        <v>384952.992</v>
       </c>
       <c r="BD9" t="n">
-        <v>35946</v>
+        <v>442176</v>
       </c>
       <c r="BE9" t="n">
-        <v>100868</v>
+        <v>552348.992</v>
       </c>
       <c r="BF9" t="n">
-        <v>312191.008</v>
+        <v>652099.008</v>
       </c>
       <c r="BG9" t="n">
-        <v>102415</v>
+        <v>406852</v>
       </c>
       <c r="BH9" t="n">
-        <v>384952.992</v>
+        <v>443252.992</v>
       </c>
       <c r="BI9" t="n">
-        <v>442176</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>552348.992</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>652099.008</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>106655</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>131654</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>125348</v>
+        <v>501316</v>
       </c>
     </row>
     <row r="10">
@@ -2514,73 +2369,58 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>14149</v>
       </c>
       <c r="AS10" t="n">
-        <v>0</v>
+        <v>12915</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>11378</v>
       </c>
       <c r="AU10" t="n">
-        <v>14149</v>
+        <v>13134</v>
       </c>
       <c r="AV10" t="n">
-        <v>12915</v>
+        <v>12490</v>
       </c>
       <c r="AW10" t="n">
-        <v>11378</v>
+        <v>11117</v>
       </c>
       <c r="AX10" t="n">
-        <v>13134</v>
+        <v>13579</v>
       </c>
       <c r="AY10" t="n">
-        <v>12490</v>
+        <v>15401</v>
       </c>
       <c r="AZ10" t="n">
-        <v>11117</v>
+        <v>14333</v>
       </c>
       <c r="BA10" t="n">
-        <v>13579</v>
+        <v>13353</v>
       </c>
       <c r="BB10" t="n">
-        <v>15401</v>
+        <v>21649</v>
       </c>
       <c r="BC10" t="n">
-        <v>14333</v>
+        <v>20058</v>
       </c>
       <c r="BD10" t="n">
-        <v>13353</v>
+        <v>17826</v>
       </c>
       <c r="BE10" t="n">
-        <v>0</v>
+        <v>24799</v>
       </c>
       <c r="BF10" t="n">
-        <v>21649</v>
+        <v>24039</v>
       </c>
       <c r="BG10" t="n">
-        <v>0</v>
+        <v>23573</v>
       </c>
       <c r="BH10" t="n">
-        <v>20058</v>
+        <v>25189</v>
       </c>
       <c r="BI10" t="n">
-        <v>17826</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>24799</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>24039</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>0</v>
+        <v>29897</v>
       </c>
     </row>
     <row r="11">
@@ -2590,49 +2430,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19877</v>
+        <v>10421</v>
       </c>
       <c r="C11" t="n">
-        <v>18841</v>
+        <v>11684</v>
       </c>
       <c r="D11" t="n">
-        <v>16436</v>
+        <v>6957</v>
       </c>
       <c r="E11" t="n">
-        <v>10421</v>
+        <v>7840</v>
       </c>
       <c r="F11" t="n">
-        <v>11684</v>
+        <v>11409</v>
       </c>
       <c r="G11" t="n">
-        <v>6957</v>
+        <v>12567</v>
       </c>
       <c r="H11" t="n">
-        <v>7840</v>
+        <v>13425</v>
       </c>
       <c r="I11" t="n">
-        <v>11409</v>
+        <v>13207</v>
       </c>
       <c r="J11" t="n">
-        <v>12567</v>
+        <v>18925</v>
       </c>
       <c r="K11" t="n">
-        <v>13425</v>
+        <v>50540</v>
       </c>
       <c r="L11" t="n">
-        <v>13207</v>
+        <v>56171</v>
       </c>
       <c r="M11" t="n">
-        <v>18925</v>
+        <v>118407</v>
       </c>
       <c r="N11" t="n">
-        <v>50540</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>56171</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>118407</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -2716,73 +2556,58 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>256884</v>
       </c>
       <c r="AS11" t="n">
-        <v>0</v>
+        <v>300532</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>180067.008</v>
       </c>
       <c r="AU11" t="n">
-        <v>256884</v>
+        <v>153886</v>
       </c>
       <c r="AV11" t="n">
-        <v>300532</v>
+        <v>395472</v>
       </c>
       <c r="AW11" t="n">
-        <v>180067.008</v>
+        <v>363424</v>
       </c>
       <c r="AX11" t="n">
-        <v>153886</v>
+        <v>248476.992</v>
       </c>
       <c r="AY11" t="n">
-        <v>395472</v>
+        <v>359084</v>
       </c>
       <c r="AZ11" t="n">
-        <v>363424</v>
+        <v>329764.992</v>
       </c>
       <c r="BA11" t="n">
-        <v>248476.992</v>
+        <v>731894.0159999999</v>
       </c>
       <c r="BB11" t="n">
-        <v>359084</v>
+        <v>468611.008</v>
       </c>
       <c r="BC11" t="n">
-        <v>329764.992</v>
+        <v>269352</v>
       </c>
       <c r="BD11" t="n">
-        <v>731894.0159999999</v>
+        <v>197027.008</v>
       </c>
       <c r="BE11" t="n">
-        <v>348579.008</v>
+        <v>182430</v>
       </c>
       <c r="BF11" t="n">
-        <v>468611.008</v>
+        <v>173784.992</v>
       </c>
       <c r="BG11" t="n">
-        <v>388307.008</v>
+        <v>194014</v>
       </c>
       <c r="BH11" t="n">
-        <v>269352</v>
+        <v>204160</v>
       </c>
       <c r="BI11" t="n">
-        <v>197027.008</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>182430</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>173784.992</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>212532</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>291304.992</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>242122</v>
+        <v>275988.992</v>
       </c>
     </row>
     <row r="12">
@@ -2792,49 +2617,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>317008</v>
+        <v>370075.008</v>
       </c>
       <c r="C12" t="n">
-        <v>297563.008</v>
+        <v>348456.992</v>
       </c>
       <c r="D12" t="n">
-        <v>314027.008</v>
+        <v>295732.992</v>
       </c>
       <c r="E12" t="n">
-        <v>370075.008</v>
+        <v>255828.992</v>
       </c>
       <c r="F12" t="n">
-        <v>348456.992</v>
+        <v>267431.008</v>
       </c>
       <c r="G12" t="n">
-        <v>295732.992</v>
+        <v>264056</v>
       </c>
       <c r="H12" t="n">
-        <v>255828.992</v>
+        <v>268339.008</v>
       </c>
       <c r="I12" t="n">
-        <v>267431.008</v>
+        <v>251655.008</v>
       </c>
       <c r="J12" t="n">
-        <v>264056</v>
+        <v>480344.992</v>
       </c>
       <c r="K12" t="n">
-        <v>268339.008</v>
+        <v>512943.008</v>
       </c>
       <c r="L12" t="n">
-        <v>251655.008</v>
+        <v>534683.008</v>
       </c>
       <c r="M12" t="n">
-        <v>480344.992</v>
+        <v>584883.968</v>
       </c>
       <c r="N12" t="n">
-        <v>512943.008</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>534683.008</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>584883.968</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -2918,73 +2743,58 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>1706083.968</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>1750750.976</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>1829870.976</v>
       </c>
       <c r="AU12" t="n">
-        <v>1706083.968</v>
+        <v>1972406.016</v>
       </c>
       <c r="AV12" t="n">
-        <v>1750750.976</v>
+        <v>1894400</v>
       </c>
       <c r="AW12" t="n">
-        <v>1829870.976</v>
+        <v>1975992.96</v>
       </c>
       <c r="AX12" t="n">
-        <v>1972406.016</v>
+        <v>2181831.936</v>
       </c>
       <c r="AY12" t="n">
-        <v>1894400</v>
+        <v>2202724.096</v>
       </c>
       <c r="AZ12" t="n">
-        <v>1975992.96</v>
+        <v>4051977.984</v>
       </c>
       <c r="BA12" t="n">
-        <v>2181831.936</v>
+        <v>4162292.992</v>
       </c>
       <c r="BB12" t="n">
-        <v>2202724.096</v>
+        <v>4201970.944</v>
       </c>
       <c r="BC12" t="n">
-        <v>4051977.984</v>
+        <v>4475538.944</v>
       </c>
       <c r="BD12" t="n">
-        <v>4162292.992</v>
+        <v>4778770.944</v>
       </c>
       <c r="BE12" t="n">
-        <v>1092733.056</v>
+        <v>4542977.024</v>
       </c>
       <c r="BF12" t="n">
-        <v>4201970.944</v>
+        <v>4476038.144</v>
       </c>
       <c r="BG12" t="n">
-        <v>1238419.968</v>
+        <v>4680232.96</v>
       </c>
       <c r="BH12" t="n">
-        <v>4475538.944</v>
+        <v>4815275.008</v>
       </c>
       <c r="BI12" t="n">
-        <v>4778770.944</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>4542977.024</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>4476038.144</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>1665336.96</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>1806897.024</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>1763318.016</v>
+        <v>4974621.184</v>
       </c>
     </row>
     <row r="13">
@@ -3173,21 +2983,6 @@
       <c r="BI13" t="n">
         <v>0</v>
       </c>
-      <c r="BJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3375,21 +3170,6 @@
       <c r="BI14" t="n">
         <v>0</v>
       </c>
-      <c r="BJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3398,49 +3178,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>283820</v>
+        <v>353500.992</v>
       </c>
       <c r="C15" t="n">
-        <v>273931.008</v>
+        <v>340228</v>
       </c>
       <c r="D15" t="n">
-        <v>293944</v>
+        <v>289288</v>
       </c>
       <c r="E15" t="n">
-        <v>353500.992</v>
+        <v>248956.992</v>
       </c>
       <c r="F15" t="n">
-        <v>340228</v>
+        <v>260552.992</v>
       </c>
       <c r="G15" t="n">
-        <v>289288</v>
+        <v>257618</v>
       </c>
       <c r="H15" t="n">
-        <v>248956.992</v>
+        <v>261903.008</v>
       </c>
       <c r="I15" t="n">
-        <v>260552.992</v>
+        <v>250468.992</v>
       </c>
       <c r="J15" t="n">
-        <v>257618</v>
+        <v>20466</v>
       </c>
       <c r="K15" t="n">
-        <v>261903.008</v>
+        <v>21135</v>
       </c>
       <c r="L15" t="n">
-        <v>250468.992</v>
+        <v>21484</v>
       </c>
       <c r="M15" t="n">
-        <v>20466</v>
+        <v>21989</v>
       </c>
       <c r="N15" t="n">
-        <v>21135</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>21484</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>21989</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -3575,21 +3355,6 @@
         <v>0</v>
       </c>
       <c r="BI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3627,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -3636,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -3726,73 +3491,58 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>18025</v>
       </c>
       <c r="AS16" t="n">
-        <v>0</v>
+        <v>21387</v>
       </c>
       <c r="AT16" t="n">
-        <v>0</v>
+        <v>20840</v>
       </c>
       <c r="AU16" t="n">
-        <v>18025</v>
+        <v>19932</v>
       </c>
       <c r="AV16" t="n">
-        <v>21387</v>
+        <v>18639</v>
       </c>
       <c r="AW16" t="n">
-        <v>20840</v>
+        <v>18671</v>
       </c>
       <c r="AX16" t="n">
-        <v>19932</v>
+        <v>26464</v>
       </c>
       <c r="AY16" t="n">
-        <v>18639</v>
+        <v>25344</v>
       </c>
       <c r="AZ16" t="n">
-        <v>18671</v>
+        <v>24241</v>
       </c>
       <c r="BA16" t="n">
-        <v>26464</v>
+        <v>25420</v>
       </c>
       <c r="BB16" t="n">
-        <v>25344</v>
+        <v>23137</v>
       </c>
       <c r="BC16" t="n">
-        <v>24241</v>
+        <v>19404</v>
       </c>
       <c r="BD16" t="n">
-        <v>25420</v>
+        <v>18298</v>
       </c>
       <c r="BE16" t="n">
-        <v>48255</v>
+        <v>17228</v>
       </c>
       <c r="BF16" t="n">
-        <v>23137</v>
+        <v>17483</v>
       </c>
       <c r="BG16" t="n">
-        <v>34478</v>
+        <v>17880</v>
       </c>
       <c r="BH16" t="n">
-        <v>19404</v>
+        <v>10161</v>
       </c>
       <c r="BI16" t="n">
-        <v>18298</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>17228</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>17483</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>34068</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>9393</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>5602</v>
+        <v>9354</v>
       </c>
     </row>
     <row r="17">
@@ -3981,21 +3731,6 @@
       <c r="BI17" t="n">
         <v>0</v>
       </c>
-      <c r="BJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4028,25 +3763,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>138074</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>111577</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>104901</v>
       </c>
       <c r="M18" t="n">
-        <v>138074</v>
+        <v>106358</v>
       </c>
       <c r="N18" t="n">
-        <v>111577</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>104901</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>106358</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -4181,21 +3916,6 @@
         <v>0</v>
       </c>
       <c r="BI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4332,43 +4052,43 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>58964</v>
       </c>
       <c r="AS19" t="n">
-        <v>0</v>
+        <v>14809</v>
       </c>
       <c r="AT19" t="n">
-        <v>0</v>
+        <v>82240</v>
       </c>
       <c r="AU19" t="n">
-        <v>58964</v>
+        <v>0</v>
       </c>
       <c r="AV19" t="n">
-        <v>14809</v>
+        <v>0</v>
       </c>
       <c r="AW19" t="n">
-        <v>82240</v>
+        <v>0</v>
       </c>
       <c r="AX19" t="n">
-        <v>0</v>
+        <v>19459</v>
       </c>
       <c r="AY19" t="n">
         <v>0</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0</v>
+        <v>65972</v>
       </c>
       <c r="BA19" t="n">
-        <v>19459</v>
+        <v>40717</v>
       </c>
       <c r="BB19" t="n">
         <v>0</v>
       </c>
       <c r="BC19" t="n">
-        <v>65972</v>
+        <v>0</v>
       </c>
       <c r="BD19" t="n">
-        <v>40717</v>
+        <v>0</v>
       </c>
       <c r="BE19" t="n">
         <v>0</v>
@@ -4383,22 +4103,7 @@
         <v>0</v>
       </c>
       <c r="BI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>0</v>
+        <v>93761</v>
       </c>
     </row>
     <row r="20">
@@ -4534,73 +4239,58 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>917</v>
       </c>
       <c r="AS20" t="n">
-        <v>0</v>
+        <v>772</v>
       </c>
       <c r="AT20" t="n">
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="AU20" t="n">
-        <v>917</v>
+        <v>673</v>
       </c>
       <c r="AV20" t="n">
-        <v>772</v>
+        <v>431</v>
       </c>
       <c r="AW20" t="n">
-        <v>770</v>
+        <v>335</v>
       </c>
       <c r="AX20" t="n">
-        <v>673</v>
+        <v>308</v>
       </c>
       <c r="AY20" t="n">
-        <v>431</v>
+        <v>290</v>
       </c>
       <c r="AZ20" t="n">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="BA20" t="n">
-        <v>308</v>
+        <v>1739</v>
       </c>
       <c r="BB20" t="n">
-        <v>290</v>
+        <v>153</v>
       </c>
       <c r="BC20" t="n">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="BD20" t="n">
-        <v>1739</v>
+        <v>220</v>
       </c>
       <c r="BE20" t="n">
-        <v>0</v>
+        <v>6201</v>
       </c>
       <c r="BF20" t="n">
-        <v>153</v>
+        <v>5559</v>
       </c>
       <c r="BG20" t="n">
-        <v>0</v>
+        <v>6210</v>
       </c>
       <c r="BH20" t="n">
-        <v>255</v>
+        <v>5589</v>
       </c>
       <c r="BI20" t="n">
-        <v>220</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>6201</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>5559</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>0</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="21">
@@ -4610,49 +4300,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>33188</v>
+        <v>16574</v>
       </c>
       <c r="C21" t="n">
-        <v>23632</v>
+        <v>8229</v>
       </c>
       <c r="D21" t="n">
-        <v>20083</v>
+        <v>6445</v>
       </c>
       <c r="E21" t="n">
-        <v>16574</v>
+        <v>6872</v>
       </c>
       <c r="F21" t="n">
-        <v>8229</v>
+        <v>6878</v>
       </c>
       <c r="G21" t="n">
-        <v>6445</v>
+        <v>6438</v>
       </c>
       <c r="H21" t="n">
-        <v>6872</v>
+        <v>6436</v>
       </c>
       <c r="I21" t="n">
-        <v>6878</v>
+        <v>1186</v>
       </c>
       <c r="J21" t="n">
-        <v>6438</v>
+        <v>321804.992</v>
       </c>
       <c r="K21" t="n">
-        <v>6436</v>
+        <v>380230.016</v>
       </c>
       <c r="L21" t="n">
-        <v>1186</v>
+        <v>408297.984</v>
       </c>
       <c r="M21" t="n">
-        <v>321804.992</v>
+        <v>456536.992</v>
       </c>
       <c r="N21" t="n">
-        <v>380230.016</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>408297.984</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>456536.992</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -4787,21 +4477,6 @@
         <v>0</v>
       </c>
       <c r="BI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4977,34 +4652,19 @@
         <v>0</v>
       </c>
       <c r="BE22" t="n">
-        <v>1186893.952</v>
+        <v>0</v>
       </c>
       <c r="BF22" t="n">
         <v>0</v>
       </c>
       <c r="BG22" t="n">
-        <v>1049091.008</v>
+        <v>0</v>
       </c>
       <c r="BH22" t="n">
         <v>0</v>
       </c>
       <c r="BI22" t="n">
         <v>0</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>523743.008</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>472008</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>560526.0159999999</v>
       </c>
     </row>
     <row r="23">
@@ -5014,37 +4674,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>748963.968</v>
+        <v>700699.008</v>
       </c>
       <c r="C23" t="n">
-        <v>746972.032</v>
+        <v>707233.024</v>
       </c>
       <c r="D23" t="n">
-        <v>755958.0159999999</v>
+        <v>711219.968</v>
       </c>
       <c r="E23" t="n">
-        <v>700699.008</v>
+        <v>723934.0159999999</v>
       </c>
       <c r="F23" t="n">
-        <v>707233.024</v>
+        <v>735550.976</v>
       </c>
       <c r="G23" t="n">
-        <v>711219.968</v>
+        <v>750318.0159999999</v>
       </c>
       <c r="H23" t="n">
-        <v>723934.0159999999</v>
+        <v>799048</v>
       </c>
       <c r="I23" t="n">
-        <v>735550.976</v>
+        <v>876478.976</v>
       </c>
       <c r="J23" t="n">
-        <v>750318.0159999999</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>799048</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>876478.976</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -5179,34 +4839,19 @@
         <v>0</v>
       </c>
       <c r="BE23" t="n">
-        <v>8372796.928</v>
+        <v>0</v>
       </c>
       <c r="BF23" t="n">
         <v>0</v>
       </c>
       <c r="BG23" t="n">
-        <v>8203397.12</v>
+        <v>0</v>
       </c>
       <c r="BH23" t="n">
         <v>0</v>
       </c>
       <c r="BI23" t="n">
         <v>0</v>
-      </c>
-      <c r="BJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>9925836.800000001</v>
-      </c>
-      <c r="BM23" t="n">
-        <v>9548803.072000001</v>
-      </c>
-      <c r="BN23" t="n">
-        <v>9419749.376</v>
       </c>
     </row>
     <row r="24">
@@ -5216,49 +4861,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>74258</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>75495</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>80039</v>
       </c>
       <c r="E24" t="n">
-        <v>74258</v>
+        <v>85030</v>
       </c>
       <c r="F24" t="n">
-        <v>75495</v>
+        <v>90529</v>
       </c>
       <c r="G24" t="n">
-        <v>80039</v>
+        <v>92468</v>
       </c>
       <c r="H24" t="n">
-        <v>85030</v>
+        <v>94889</v>
       </c>
       <c r="I24" t="n">
-        <v>90529</v>
+        <v>97945</v>
       </c>
       <c r="J24" t="n">
-        <v>92468</v>
+        <v>953241.024</v>
       </c>
       <c r="K24" t="n">
-        <v>94889</v>
+        <v>939316.992</v>
       </c>
       <c r="L24" t="n">
-        <v>97945</v>
+        <v>951006.0159999999</v>
       </c>
       <c r="M24" t="n">
-        <v>953241.024</v>
+        <v>953112</v>
       </c>
       <c r="N24" t="n">
-        <v>939316.992</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>951006.0159999999</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>953112</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -5342,73 +4987,58 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>907073.024</v>
       </c>
       <c r="AS24" t="n">
-        <v>0</v>
+        <v>904489.024</v>
       </c>
       <c r="AT24" t="n">
-        <v>0</v>
+        <v>918388.992</v>
       </c>
       <c r="AU24" t="n">
-        <v>907073.024</v>
+        <v>911620.992</v>
       </c>
       <c r="AV24" t="n">
-        <v>904489.024</v>
+        <v>903633.9840000001</v>
       </c>
       <c r="AW24" t="n">
-        <v>918388.992</v>
+        <v>914668.032</v>
       </c>
       <c r="AX24" t="n">
-        <v>911620.992</v>
+        <v>928838.976</v>
       </c>
       <c r="AY24" t="n">
-        <v>903633.9840000001</v>
+        <v>936689.9840000001</v>
       </c>
       <c r="AZ24" t="n">
-        <v>914668.032</v>
+        <v>943014.0159999999</v>
       </c>
       <c r="BA24" t="n">
-        <v>928838.976</v>
+        <v>965179.008</v>
       </c>
       <c r="BB24" t="n">
-        <v>936689.9840000001</v>
+        <v>1020497.024</v>
       </c>
       <c r="BC24" t="n">
-        <v>943014.0159999999</v>
+        <v>712953.024</v>
       </c>
       <c r="BD24" t="n">
-        <v>965179.008</v>
+        <v>677614.0159999999</v>
       </c>
       <c r="BE24" t="n">
-        <v>2491073.024</v>
+        <v>708649.024</v>
       </c>
       <c r="BF24" t="n">
-        <v>1020497.024</v>
+        <v>727454.976</v>
       </c>
       <c r="BG24" t="n">
-        <v>2397225.984</v>
+        <v>700694.976</v>
       </c>
       <c r="BH24" t="n">
-        <v>712953.024</v>
+        <v>675630.976</v>
       </c>
       <c r="BI24" t="n">
-        <v>677614.0159999999</v>
-      </c>
-      <c r="BJ24" t="n">
-        <v>708649.024</v>
-      </c>
-      <c r="BK24" t="n">
-        <v>727454.976</v>
-      </c>
-      <c r="BL24" t="n">
-        <v>2821991.936</v>
-      </c>
-      <c r="BM24" t="n">
-        <v>2629313.024</v>
-      </c>
-      <c r="BN24" t="n">
-        <v>2577323.008</v>
+        <v>652619.008</v>
       </c>
     </row>
     <row r="25">
@@ -5418,13 +5048,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -5595,21 +5225,6 @@
         <v>0</v>
       </c>
       <c r="BI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5620,49 +5235,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1738832</v>
+        <v>1811056</v>
       </c>
       <c r="C26" t="n">
-        <v>1724141.056</v>
+        <v>1817668.992</v>
       </c>
       <c r="D26" t="n">
-        <v>1759680</v>
+        <v>1754769.024</v>
       </c>
       <c r="E26" t="n">
-        <v>1811056</v>
+        <v>1776907.008</v>
       </c>
       <c r="F26" t="n">
-        <v>1817668.992</v>
+        <v>1930416</v>
       </c>
       <c r="G26" t="n">
-        <v>1754769.024</v>
+        <v>1904615.936</v>
       </c>
       <c r="H26" t="n">
-        <v>1776907.008</v>
+        <v>1864402.944</v>
       </c>
       <c r="I26" t="n">
-        <v>1930416</v>
+        <v>1867072</v>
       </c>
       <c r="J26" t="n">
-        <v>1904615.936</v>
+        <v>2235604.992</v>
       </c>
       <c r="K26" t="n">
-        <v>1864402.944</v>
+        <v>2217862.912</v>
       </c>
       <c r="L26" t="n">
-        <v>1867072</v>
+        <v>2265442.048</v>
       </c>
       <c r="M26" t="n">
-        <v>2235604.992</v>
+        <v>2274137.088</v>
       </c>
       <c r="N26" t="n">
-        <v>2217862.912</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>2265442.048</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>2274137.088</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -5746,73 +5361,58 @@
         <v>0</v>
       </c>
       <c r="AR26" t="n">
-        <v>0</v>
+        <v>4016713.984</v>
       </c>
       <c r="AS26" t="n">
-        <v>0</v>
+        <v>4160902.912</v>
       </c>
       <c r="AT26" t="n">
-        <v>0</v>
+        <v>4073041.92</v>
       </c>
       <c r="AU26" t="n">
-        <v>4016713.984</v>
+        <v>4502219.776</v>
       </c>
       <c r="AV26" t="n">
-        <v>4160902.912</v>
+        <v>4713357.824</v>
       </c>
       <c r="AW26" t="n">
-        <v>4073041.92</v>
+        <v>4819560.96</v>
       </c>
       <c r="AX26" t="n">
-        <v>4502219.776</v>
+        <v>4740639.744</v>
       </c>
       <c r="AY26" t="n">
-        <v>4713357.824</v>
+        <v>4944547.84</v>
       </c>
       <c r="AZ26" t="n">
-        <v>4819560.96</v>
+        <v>6542402.048</v>
       </c>
       <c r="BA26" t="n">
-        <v>4740639.744</v>
+        <v>7527629.824</v>
       </c>
       <c r="BB26" t="n">
-        <v>4944547.84</v>
+        <v>7348170.24</v>
       </c>
       <c r="BC26" t="n">
-        <v>6542402.048</v>
+        <v>7121232.896</v>
       </c>
       <c r="BD26" t="n">
-        <v>7527629.824</v>
+        <v>7122402.816</v>
       </c>
       <c r="BE26" t="n">
-        <v>14881271.808</v>
+        <v>7252584.96</v>
       </c>
       <c r="BF26" t="n">
-        <v>7348170.24</v>
+        <v>7405043.2</v>
       </c>
       <c r="BG26" t="n">
-        <v>14973973.504</v>
+        <v>7451621.888</v>
       </c>
       <c r="BH26" t="n">
-        <v>7121232.896</v>
+        <v>7774801.92</v>
       </c>
       <c r="BI26" t="n">
-        <v>7122402.816</v>
-      </c>
-      <c r="BJ26" t="n">
-        <v>7252584.96</v>
-      </c>
-      <c r="BK26" t="n">
-        <v>7405043.2</v>
-      </c>
-      <c r="BL26" t="n">
-        <v>18500421.632</v>
-      </c>
-      <c r="BM26" t="n">
-        <v>16762376.192</v>
-      </c>
-      <c r="BN26" t="n">
-        <v>16639265.792</v>
+        <v>7787472.896</v>
       </c>
     </row>
     <row r="27">
@@ -5822,49 +5422,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>763281.9840000001</v>
+        <v>781737.9840000001</v>
       </c>
       <c r="C27" t="n">
-        <v>762721.024</v>
+        <v>928460.032</v>
       </c>
       <c r="D27" t="n">
-        <v>751598.0159999999</v>
+        <v>943267.008</v>
       </c>
       <c r="E27" t="n">
-        <v>781737.9840000001</v>
+        <v>988630.0159999999</v>
       </c>
       <c r="F27" t="n">
-        <v>928460.032</v>
+        <v>1112257.024</v>
       </c>
       <c r="G27" t="n">
-        <v>943267.008</v>
+        <v>1168792.064</v>
       </c>
       <c r="H27" t="n">
-        <v>988630.0159999999</v>
+        <v>1042894.976</v>
       </c>
       <c r="I27" t="n">
-        <v>1112257.024</v>
+        <v>968809.024</v>
       </c>
       <c r="J27" t="n">
-        <v>1168792.064</v>
+        <v>763164.992</v>
       </c>
       <c r="K27" t="n">
-        <v>1042894.976</v>
+        <v>637771.008</v>
       </c>
       <c r="L27" t="n">
-        <v>968809.024</v>
+        <v>616268.032</v>
       </c>
       <c r="M27" t="n">
-        <v>763164.992</v>
+        <v>673899.008</v>
       </c>
       <c r="N27" t="n">
-        <v>637771.008</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>616268.032</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>673899.008</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -5948,73 +5548,58 @@
         <v>0</v>
       </c>
       <c r="AR27" t="n">
-        <v>0</v>
+        <v>1337329.024</v>
       </c>
       <c r="AS27" t="n">
-        <v>0</v>
+        <v>1428738.944</v>
       </c>
       <c r="AT27" t="n">
-        <v>0</v>
+        <v>1383459.968</v>
       </c>
       <c r="AU27" t="n">
-        <v>1337329.024</v>
+        <v>1335520</v>
       </c>
       <c r="AV27" t="n">
-        <v>1428738.944</v>
+        <v>1989848.96</v>
       </c>
       <c r="AW27" t="n">
-        <v>1383459.968</v>
+        <v>1936562.944</v>
       </c>
       <c r="AX27" t="n">
-        <v>1335520</v>
+        <v>2206635.008</v>
       </c>
       <c r="AY27" t="n">
-        <v>1989848.96</v>
+        <v>2044391.936</v>
       </c>
       <c r="AZ27" t="n">
-        <v>1936562.944</v>
+        <v>1557879.04</v>
       </c>
       <c r="BA27" t="n">
-        <v>2206635.008</v>
+        <v>1792043.008</v>
       </c>
       <c r="BB27" t="n">
-        <v>2044391.936</v>
+        <v>1373571.968</v>
       </c>
       <c r="BC27" t="n">
-        <v>1557879.04</v>
+        <v>1362739.968</v>
       </c>
       <c r="BD27" t="n">
-        <v>1792043.008</v>
+        <v>1672344.96</v>
       </c>
       <c r="BE27" t="n">
-        <v>2451603.968</v>
+        <v>2049510.016</v>
       </c>
       <c r="BF27" t="n">
-        <v>1373571.968</v>
+        <v>2445762.048</v>
       </c>
       <c r="BG27" t="n">
-        <v>2630969.088</v>
+        <v>2666838.016</v>
       </c>
       <c r="BH27" t="n">
-        <v>1362739.968</v>
+        <v>2436476.928</v>
       </c>
       <c r="BI27" t="n">
-        <v>1672344.96</v>
-      </c>
-      <c r="BJ27" t="n">
-        <v>2049510.016</v>
-      </c>
-      <c r="BK27" t="n">
-        <v>2445762.048</v>
-      </c>
-      <c r="BL27" t="n">
-        <v>5775383.04</v>
-      </c>
-      <c r="BM27" t="n">
-        <v>5815575.04</v>
-      </c>
-      <c r="BN27" t="n">
-        <v>5279203.84</v>
+        <v>2738428.928</v>
       </c>
     </row>
     <row r="28">
@@ -6048,25 +5633,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>10673</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>13229</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>21518</v>
       </c>
       <c r="M28" t="n">
-        <v>10673</v>
+        <v>21040</v>
       </c>
       <c r="N28" t="n">
-        <v>13229</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>21518</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>21040</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -6150,73 +5735,58 @@
         <v>0</v>
       </c>
       <c r="AR28" t="n">
-        <v>0</v>
+        <v>21485</v>
       </c>
       <c r="AS28" t="n">
-        <v>0</v>
+        <v>23658</v>
       </c>
       <c r="AT28" t="n">
-        <v>0</v>
+        <v>16507</v>
       </c>
       <c r="AU28" t="n">
-        <v>21485</v>
+        <v>18125</v>
       </c>
       <c r="AV28" t="n">
-        <v>23658</v>
+        <v>20869</v>
       </c>
       <c r="AW28" t="n">
-        <v>16507</v>
+        <v>23983</v>
       </c>
       <c r="AX28" t="n">
-        <v>18125</v>
+        <v>17442</v>
       </c>
       <c r="AY28" t="n">
-        <v>20869</v>
+        <v>19212</v>
       </c>
       <c r="AZ28" t="n">
-        <v>23983</v>
+        <v>24939</v>
       </c>
       <c r="BA28" t="n">
-        <v>17442</v>
+        <v>26426</v>
       </c>
       <c r="BB28" t="n">
-        <v>19212</v>
+        <v>20856</v>
       </c>
       <c r="BC28" t="n">
-        <v>24939</v>
+        <v>29737</v>
       </c>
       <c r="BD28" t="n">
-        <v>26426</v>
+        <v>21146</v>
       </c>
       <c r="BE28" t="n">
-        <v>0</v>
+        <v>45854</v>
       </c>
       <c r="BF28" t="n">
-        <v>20856</v>
+        <v>42453</v>
       </c>
       <c r="BG28" t="n">
-        <v>0</v>
+        <v>50192</v>
       </c>
       <c r="BH28" t="n">
-        <v>29737</v>
+        <v>45589</v>
       </c>
       <c r="BI28" t="n">
-        <v>21146</v>
-      </c>
-      <c r="BJ28" t="n">
-        <v>45854</v>
-      </c>
-      <c r="BK28" t="n">
-        <v>42453</v>
-      </c>
-      <c r="BL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN28" t="n">
-        <v>0</v>
+        <v>50765</v>
       </c>
     </row>
     <row r="29">
@@ -6226,49 +5796,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>196886</v>
+        <v>207302</v>
       </c>
       <c r="C29" t="n">
-        <v>153544.992</v>
+        <v>212114</v>
       </c>
       <c r="D29" t="n">
-        <v>185494</v>
+        <v>204116.992</v>
       </c>
       <c r="E29" t="n">
-        <v>207302</v>
+        <v>197640.992</v>
       </c>
       <c r="F29" t="n">
-        <v>212114</v>
+        <v>230212.992</v>
       </c>
       <c r="G29" t="n">
-        <v>204116.992</v>
+        <v>257490</v>
       </c>
       <c r="H29" t="n">
-        <v>197640.992</v>
+        <v>224644</v>
       </c>
       <c r="I29" t="n">
-        <v>230212.992</v>
+        <v>253268</v>
       </c>
       <c r="J29" t="n">
-        <v>257490</v>
+        <v>212563.008</v>
       </c>
       <c r="K29" t="n">
-        <v>224644</v>
+        <v>242690</v>
       </c>
       <c r="L29" t="n">
-        <v>253268</v>
+        <v>221000.992</v>
       </c>
       <c r="M29" t="n">
-        <v>212563.008</v>
+        <v>252596</v>
       </c>
       <c r="N29" t="n">
-        <v>242690</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>221000.992</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>252596</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -6352,73 +5922,58 @@
         <v>0</v>
       </c>
       <c r="AR29" t="n">
-        <v>0</v>
+        <v>498275.008</v>
       </c>
       <c r="AS29" t="n">
-        <v>0</v>
+        <v>545670.976</v>
       </c>
       <c r="AT29" t="n">
-        <v>0</v>
+        <v>559468.992</v>
       </c>
       <c r="AU29" t="n">
-        <v>498275.008</v>
+        <v>497113.984</v>
       </c>
       <c r="AV29" t="n">
-        <v>545670.976</v>
+        <v>489049.984</v>
       </c>
       <c r="AW29" t="n">
-        <v>559468.992</v>
+        <v>502100</v>
       </c>
       <c r="AX29" t="n">
-        <v>497113.984</v>
+        <v>688753.9840000001</v>
       </c>
       <c r="AY29" t="n">
-        <v>489049.984</v>
+        <v>558702.0159999999</v>
       </c>
       <c r="AZ29" t="n">
-        <v>502100</v>
+        <v>661769.9840000001</v>
       </c>
       <c r="BA29" t="n">
-        <v>688753.9840000001</v>
+        <v>816080</v>
       </c>
       <c r="BB29" t="n">
-        <v>558702.0159999999</v>
+        <v>563308.992</v>
       </c>
       <c r="BC29" t="n">
-        <v>661769.9840000001</v>
+        <v>590120</v>
       </c>
       <c r="BD29" t="n">
-        <v>816080</v>
+        <v>591225.9840000001</v>
       </c>
       <c r="BE29" t="n">
-        <v>290660.992</v>
+        <v>538158.976</v>
       </c>
       <c r="BF29" t="n">
-        <v>563308.992</v>
+        <v>556825.024</v>
       </c>
       <c r="BG29" t="n">
-        <v>195186</v>
+        <v>607526.976</v>
       </c>
       <c r="BH29" t="n">
-        <v>590120</v>
+        <v>623670.976</v>
       </c>
       <c r="BI29" t="n">
-        <v>591225.9840000001</v>
-      </c>
-      <c r="BJ29" t="n">
-        <v>538158.976</v>
-      </c>
-      <c r="BK29" t="n">
-        <v>556825.024</v>
-      </c>
-      <c r="BL29" t="n">
-        <v>190235.008</v>
-      </c>
-      <c r="BM29" t="n">
-        <v>322400.992</v>
-      </c>
-      <c r="BN29" t="n">
-        <v>221702</v>
+        <v>619275.008</v>
       </c>
     </row>
     <row r="30">
@@ -6428,49 +5983,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>102361</v>
+        <v>94404</v>
       </c>
       <c r="C30" t="n">
-        <v>89614</v>
+        <v>110931</v>
       </c>
       <c r="D30" t="n">
-        <v>94185</v>
+        <v>99767</v>
       </c>
       <c r="E30" t="n">
-        <v>94404</v>
+        <v>92115</v>
       </c>
       <c r="F30" t="n">
-        <v>110931</v>
+        <v>102519</v>
       </c>
       <c r="G30" t="n">
-        <v>99767</v>
+        <v>141996.992</v>
       </c>
       <c r="H30" t="n">
-        <v>92115</v>
+        <v>120043</v>
       </c>
       <c r="I30" t="n">
-        <v>102519</v>
+        <v>119317</v>
       </c>
       <c r="J30" t="n">
-        <v>141996.992</v>
+        <v>116814</v>
       </c>
       <c r="K30" t="n">
-        <v>120043</v>
+        <v>133209</v>
       </c>
       <c r="L30" t="n">
-        <v>119317</v>
+        <v>114600</v>
       </c>
       <c r="M30" t="n">
-        <v>116814</v>
+        <v>117581</v>
       </c>
       <c r="N30" t="n">
-        <v>133209</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>114600</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>117581</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -6554,73 +6109,58 @@
         <v>0</v>
       </c>
       <c r="AR30" t="n">
-        <v>0</v>
+        <v>153919.008</v>
       </c>
       <c r="AS30" t="n">
-        <v>0</v>
+        <v>143144.992</v>
       </c>
       <c r="AT30" t="n">
-        <v>0</v>
+        <v>150224</v>
       </c>
       <c r="AU30" t="n">
-        <v>153919.008</v>
+        <v>129771</v>
       </c>
       <c r="AV30" t="n">
-        <v>143144.992</v>
+        <v>189122</v>
       </c>
       <c r="AW30" t="n">
-        <v>150224</v>
+        <v>187199.008</v>
       </c>
       <c r="AX30" t="n">
-        <v>129771</v>
+        <v>183479.008</v>
       </c>
       <c r="AY30" t="n">
-        <v>189122</v>
+        <v>182940.992</v>
       </c>
       <c r="AZ30" t="n">
-        <v>187199.008</v>
+        <v>177107.008</v>
       </c>
       <c r="BA30" t="n">
-        <v>183479.008</v>
+        <v>197263.008</v>
       </c>
       <c r="BB30" t="n">
-        <v>182940.992</v>
+        <v>251700</v>
       </c>
       <c r="BC30" t="n">
-        <v>177107.008</v>
+        <v>38645</v>
       </c>
       <c r="BD30" t="n">
-        <v>197263.008</v>
+        <v>45086</v>
       </c>
       <c r="BE30" t="n">
-        <v>201066</v>
+        <v>117158</v>
       </c>
       <c r="BF30" t="n">
-        <v>251700</v>
+        <v>211567.008</v>
       </c>
       <c r="BG30" t="n">
-        <v>126724</v>
+        <v>174310</v>
       </c>
       <c r="BH30" t="n">
-        <v>38645</v>
+        <v>194268</v>
       </c>
       <c r="BI30" t="n">
-        <v>45086</v>
-      </c>
-      <c r="BJ30" t="n">
-        <v>117158</v>
-      </c>
-      <c r="BK30" t="n">
-        <v>211567.008</v>
-      </c>
-      <c r="BL30" t="n">
-        <v>394220.992</v>
-      </c>
-      <c r="BM30" t="n">
-        <v>494088</v>
-      </c>
-      <c r="BN30" t="n">
-        <v>171004</v>
+        <v>165943.008</v>
       </c>
     </row>
     <row r="31">
@@ -6630,49 +6170,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>94104</v>
+        <v>132487</v>
       </c>
       <c r="C31" t="n">
-        <v>204277</v>
+        <v>263042</v>
       </c>
       <c r="D31" t="n">
-        <v>208689.008</v>
+        <v>280511.992</v>
       </c>
       <c r="E31" t="n">
-        <v>132487</v>
+        <v>275718</v>
       </c>
       <c r="F31" t="n">
-        <v>263042</v>
+        <v>332199.008</v>
       </c>
       <c r="G31" t="n">
-        <v>280511.992</v>
+        <v>319276.992</v>
       </c>
       <c r="H31" t="n">
-        <v>275718</v>
+        <v>275858</v>
       </c>
       <c r="I31" t="n">
-        <v>332199.008</v>
+        <v>286765.992</v>
       </c>
       <c r="J31" t="n">
-        <v>319276.992</v>
+        <v>295616.992</v>
       </c>
       <c r="K31" t="n">
-        <v>275858</v>
+        <v>113138</v>
       </c>
       <c r="L31" t="n">
-        <v>286765.992</v>
+        <v>110101</v>
       </c>
       <c r="M31" t="n">
-        <v>295616.992</v>
+        <v>141450</v>
       </c>
       <c r="N31" t="n">
-        <v>113138</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>110101</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>141450</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -6756,73 +6296,58 @@
         <v>0</v>
       </c>
       <c r="AR31" t="n">
-        <v>0</v>
+        <v>462359.008</v>
       </c>
       <c r="AS31" t="n">
-        <v>0</v>
+        <v>523924.992</v>
       </c>
       <c r="AT31" t="n">
-        <v>0</v>
+        <v>387612.992</v>
       </c>
       <c r="AU31" t="n">
-        <v>462359.008</v>
+        <v>430356</v>
       </c>
       <c r="AV31" t="n">
-        <v>523924.992</v>
+        <v>825998.976</v>
       </c>
       <c r="AW31" t="n">
-        <v>387612.992</v>
+        <v>757073.9840000001</v>
       </c>
       <c r="AX31" t="n">
-        <v>430356</v>
+        <v>653433.024</v>
       </c>
       <c r="AY31" t="n">
-        <v>825998.976</v>
+        <v>646600</v>
       </c>
       <c r="AZ31" t="n">
-        <v>757073.9840000001</v>
+        <v>169810</v>
       </c>
       <c r="BA31" t="n">
-        <v>653433.024</v>
+        <v>169296.992</v>
       </c>
       <c r="BB31" t="n">
-        <v>646600</v>
+        <v>98636</v>
       </c>
       <c r="BC31" t="n">
-        <v>169810</v>
+        <v>236972.992</v>
       </c>
       <c r="BD31" t="n">
-        <v>169296.992</v>
+        <v>357094.016</v>
       </c>
       <c r="BE31" t="n">
-        <v>1321275.008</v>
+        <v>692339.008</v>
       </c>
       <c r="BF31" t="n">
-        <v>98636</v>
+        <v>793393.9840000001</v>
       </c>
       <c r="BG31" t="n">
-        <v>1176002.944</v>
+        <v>955356.992</v>
       </c>
       <c r="BH31" t="n">
-        <v>236972.992</v>
+        <v>821819.008</v>
       </c>
       <c r="BI31" t="n">
-        <v>357094.016</v>
-      </c>
-      <c r="BJ31" t="n">
-        <v>692339.008</v>
-      </c>
-      <c r="BK31" t="n">
-        <v>793393.9840000001</v>
-      </c>
-      <c r="BL31" t="n">
-        <v>893905.9840000001</v>
-      </c>
-      <c r="BM31" t="n">
-        <v>867574.0159999999</v>
-      </c>
-      <c r="BN31" t="n">
-        <v>612329.024</v>
+        <v>1168381.056</v>
       </c>
     </row>
     <row r="32">
@@ -7011,21 +6536,6 @@
       <c r="BI32" t="n">
         <v>0</v>
       </c>
-      <c r="BJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7034,37 +6544,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>158523.008</v>
+        <v>127922</v>
       </c>
       <c r="C33" t="n">
-        <v>93901</v>
+        <v>127922</v>
       </c>
       <c r="D33" t="n">
-        <v>998</v>
+        <v>168828.992</v>
       </c>
       <c r="E33" t="n">
-        <v>127922</v>
+        <v>138828.992</v>
       </c>
       <c r="F33" t="n">
-        <v>127922</v>
+        <v>181940.992</v>
       </c>
       <c r="G33" t="n">
-        <v>168828.992</v>
+        <v>181940.992</v>
       </c>
       <c r="H33" t="n">
-        <v>138828.992</v>
+        <v>197012</v>
       </c>
       <c r="I33" t="n">
-        <v>181940.992</v>
+        <v>60000</v>
       </c>
       <c r="J33" t="n">
-        <v>181940.992</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>197012</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>60000</v>
+        <v>5879</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -7073,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>5879</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -7160,73 +6670,58 @@
         <v>0</v>
       </c>
       <c r="AR33" t="n">
-        <v>0</v>
+        <v>37935</v>
       </c>
       <c r="AS33" t="n">
         <v>0</v>
       </c>
       <c r="AT33" t="n">
-        <v>0</v>
+        <v>67426</v>
       </c>
       <c r="AU33" t="n">
-        <v>37935</v>
+        <v>67426</v>
       </c>
       <c r="AV33" t="n">
-        <v>0</v>
+        <v>263483.008</v>
       </c>
       <c r="AW33" t="n">
-        <v>67426</v>
+        <v>263483.008</v>
       </c>
       <c r="AX33" t="n">
-        <v>67426</v>
+        <v>348376.992</v>
       </c>
       <c r="AY33" t="n">
-        <v>263483.008</v>
+        <v>348376.992</v>
       </c>
       <c r="AZ33" t="n">
-        <v>263483.008</v>
+        <v>236472.992</v>
       </c>
       <c r="BA33" t="n">
-        <v>348376.992</v>
+        <v>252116</v>
       </c>
       <c r="BB33" t="n">
-        <v>348376.992</v>
+        <v>0</v>
       </c>
       <c r="BC33" t="n">
-        <v>236472.992</v>
+        <v>138928</v>
       </c>
       <c r="BD33" t="n">
-        <v>252116</v>
+        <v>23375</v>
       </c>
       <c r="BE33" t="n">
-        <v>65272</v>
+        <v>30005</v>
       </c>
       <c r="BF33" t="n">
-        <v>0</v>
+        <v>7480</v>
       </c>
       <c r="BG33" t="n">
-        <v>253438</v>
+        <v>13668</v>
       </c>
       <c r="BH33" t="n">
-        <v>138928</v>
+        <v>7395</v>
       </c>
       <c r="BI33" t="n">
-        <v>23375</v>
-      </c>
-      <c r="BJ33" t="n">
-        <v>30005</v>
-      </c>
-      <c r="BK33" t="n">
-        <v>7480</v>
-      </c>
-      <c r="BL33" t="n">
-        <v>484009.984</v>
-      </c>
-      <c r="BM33" t="n">
-        <v>542560</v>
-      </c>
-      <c r="BN33" t="n">
-        <v>626123.008</v>
+        <v>17587</v>
       </c>
     </row>
     <row r="34">
@@ -7236,49 +6731,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>211408</v>
+        <v>219623.008</v>
       </c>
       <c r="C34" t="n">
-        <v>221384</v>
+        <v>214451.008</v>
       </c>
       <c r="D34" t="n">
-        <v>262232</v>
+        <v>190042</v>
       </c>
       <c r="E34" t="n">
-        <v>219623.008</v>
+        <v>284327.008</v>
       </c>
       <c r="F34" t="n">
-        <v>214451.008</v>
+        <v>265384.992</v>
       </c>
       <c r="G34" t="n">
-        <v>190042</v>
+        <v>268087.008</v>
       </c>
       <c r="H34" t="n">
-        <v>284327.008</v>
+        <v>225338</v>
       </c>
       <c r="I34" t="n">
-        <v>265384.992</v>
+        <v>249458</v>
       </c>
       <c r="J34" t="n">
-        <v>268087.008</v>
+        <v>127498</v>
       </c>
       <c r="K34" t="n">
-        <v>225338</v>
+        <v>135504.992</v>
       </c>
       <c r="L34" t="n">
-        <v>249458</v>
+        <v>143169</v>
       </c>
       <c r="M34" t="n">
-        <v>127498</v>
+        <v>141232</v>
       </c>
       <c r="N34" t="n">
-        <v>135504.992</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>143169</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>141232</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -7362,73 +6857,58 @@
         <v>0</v>
       </c>
       <c r="AR34" t="n">
-        <v>0</v>
+        <v>163356.008</v>
       </c>
       <c r="AS34" t="n">
-        <v>0</v>
+        <v>192340</v>
       </c>
       <c r="AT34" t="n">
-        <v>0</v>
+        <v>202221.008</v>
       </c>
       <c r="AU34" t="n">
-        <v>163356.008</v>
+        <v>192728</v>
       </c>
       <c r="AV34" t="n">
-        <v>192340</v>
+        <v>201325.9840000001</v>
       </c>
       <c r="AW34" t="n">
-        <v>202221.008</v>
+        <v>202724</v>
       </c>
       <c r="AX34" t="n">
-        <v>192728</v>
+        <v>315149.984</v>
       </c>
       <c r="AY34" t="n">
-        <v>201325.9840000001</v>
+        <v>288560.0319999999</v>
       </c>
       <c r="AZ34" t="n">
-        <v>202724</v>
+        <v>287780</v>
       </c>
       <c r="BA34" t="n">
-        <v>315149.984</v>
+        <v>330861.024</v>
       </c>
       <c r="BB34" t="n">
-        <v>288560.0319999999</v>
+        <v>439071.008</v>
       </c>
       <c r="BC34" t="n">
-        <v>287780</v>
+        <v>328336.992</v>
       </c>
       <c r="BD34" t="n">
-        <v>330861.024</v>
+        <v>634418.024</v>
       </c>
       <c r="BE34" t="n">
-        <v>571284.032</v>
+        <v>625995</v>
       </c>
       <c r="BF34" t="n">
-        <v>439071.008</v>
+        <v>834043.008</v>
       </c>
       <c r="BG34" t="n">
-        <v>873924.9439999999</v>
+        <v>865784.032</v>
       </c>
       <c r="BH34" t="n">
-        <v>328336.992</v>
+        <v>743734.9840000001</v>
       </c>
       <c r="BI34" t="n">
-        <v>634418.024</v>
-      </c>
-      <c r="BJ34" t="n">
-        <v>625995</v>
-      </c>
-      <c r="BK34" t="n">
-        <v>834043.008</v>
-      </c>
-      <c r="BL34" t="n">
-        <v>3804625.92</v>
-      </c>
-      <c r="BM34" t="n">
-        <v>3582845.952</v>
-      </c>
-      <c r="BN34" t="n">
-        <v>3643907.072</v>
+        <v>716478.024</v>
       </c>
     </row>
     <row r="35">
@@ -7603,34 +7083,19 @@
         <v>0</v>
       </c>
       <c r="BE35" t="n">
-        <v>2046</v>
+        <v>0</v>
       </c>
       <c r="BF35" t="n">
         <v>0</v>
       </c>
       <c r="BG35" t="n">
-        <v>5693</v>
+        <v>0</v>
       </c>
       <c r="BH35" t="n">
         <v>0</v>
       </c>
       <c r="BI35" t="n">
         <v>0</v>
-      </c>
-      <c r="BJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL35" t="n">
-        <v>8385</v>
-      </c>
-      <c r="BM35" t="n">
-        <v>6106</v>
-      </c>
-      <c r="BN35" t="n">
-        <v>4139</v>
       </c>
     </row>
     <row r="36">
@@ -7819,21 +7284,6 @@
       <c r="BI36" t="n">
         <v>0</v>
       </c>
-      <c r="BJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7842,49 +7292,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>712230.0159999999</v>
+        <v>798780.032</v>
       </c>
       <c r="C37" t="n">
-        <v>730881.9840000001</v>
+        <v>592660.992</v>
       </c>
       <c r="D37" t="n">
-        <v>717470.0159999999</v>
+        <v>580963.968</v>
       </c>
       <c r="E37" t="n">
-        <v>798780.032</v>
+        <v>572518.976</v>
       </c>
       <c r="F37" t="n">
-        <v>592660.992</v>
+        <v>587620.992</v>
       </c>
       <c r="G37" t="n">
-        <v>580963.968</v>
+        <v>417268</v>
       </c>
       <c r="H37" t="n">
-        <v>572518.976</v>
+        <v>590969.9840000001</v>
       </c>
       <c r="I37" t="n">
-        <v>587620.992</v>
+        <v>600947.968</v>
       </c>
       <c r="J37" t="n">
-        <v>417268</v>
+        <v>1075533.056</v>
       </c>
       <c r="K37" t="n">
-        <v>590969.9840000001</v>
+        <v>1063561.984</v>
       </c>
       <c r="L37" t="n">
-        <v>600947.968</v>
+        <v>1196178.944</v>
       </c>
       <c r="M37" t="n">
-        <v>1075533.056</v>
+        <v>1273436.032</v>
       </c>
       <c r="N37" t="n">
-        <v>1063561.984</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1196178.944</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1273436.032</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -7968,73 +7418,58 @@
         <v>0</v>
       </c>
       <c r="AR37" t="n">
-        <v>0</v>
+        <v>2043766.016</v>
       </c>
       <c r="AS37" t="n">
-        <v>0</v>
+        <v>2020387.968</v>
       </c>
       <c r="AT37" t="n">
-        <v>0</v>
+        <v>2125558.016</v>
       </c>
       <c r="AU37" t="n">
-        <v>2043766.016</v>
+        <v>2372029.952</v>
       </c>
       <c r="AV37" t="n">
-        <v>2020387.968</v>
+        <v>2079431.936</v>
       </c>
       <c r="AW37" t="n">
-        <v>2125558.016</v>
+        <v>2160610.048</v>
       </c>
       <c r="AX37" t="n">
-        <v>2372029.952</v>
+        <v>2345811.968</v>
       </c>
       <c r="AY37" t="n">
-        <v>2079431.936</v>
+        <v>2553319.936</v>
       </c>
       <c r="AZ37" t="n">
-        <v>2160610.048</v>
+        <v>4536791.04</v>
       </c>
       <c r="BA37" t="n">
-        <v>2345811.968</v>
+        <v>5204203.008</v>
       </c>
       <c r="BB37" t="n">
-        <v>2553319.936</v>
+        <v>5412035.072</v>
       </c>
       <c r="BC37" t="n">
-        <v>4536791.04</v>
+        <v>5310659.072</v>
       </c>
       <c r="BD37" t="n">
-        <v>5204203.008</v>
+        <v>5083505.152</v>
       </c>
       <c r="BE37" t="n">
-        <v>5183543.808</v>
+        <v>4673852.928</v>
       </c>
       <c r="BF37" t="n">
-        <v>5412035.072</v>
+        <v>4571005.952</v>
       </c>
       <c r="BG37" t="n">
-        <v>5923630.08</v>
+        <v>4301965.824</v>
       </c>
       <c r="BH37" t="n">
-        <v>5310659.072</v>
+        <v>4746170.88</v>
       </c>
       <c r="BI37" t="n">
-        <v>5083505.152</v>
-      </c>
-      <c r="BJ37" t="n">
-        <v>4673852.928</v>
-      </c>
-      <c r="BK37" t="n">
-        <v>4571005.952</v>
-      </c>
-      <c r="BL37" t="n">
-        <v>3559753.984</v>
-      </c>
-      <c r="BM37" t="n">
-        <v>3299788.032</v>
-      </c>
-      <c r="BN37" t="n">
-        <v>3365931.008</v>
+        <v>4298675.2</v>
       </c>
     </row>
     <row r="38">
@@ -8044,49 +7479,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>512590</v>
+        <v>643362</v>
       </c>
       <c r="C38" t="n">
-        <v>534996.992</v>
+        <v>440686</v>
       </c>
       <c r="D38" t="n">
-        <v>538259.008</v>
+        <v>438948</v>
       </c>
       <c r="E38" t="n">
-        <v>643362</v>
+        <v>435515.008</v>
       </c>
       <c r="F38" t="n">
-        <v>440686</v>
+        <v>432581</v>
       </c>
       <c r="G38" t="n">
-        <v>438948</v>
+        <v>269136.992</v>
       </c>
       <c r="H38" t="n">
-        <v>435515.008</v>
+        <v>414349.984</v>
       </c>
       <c r="I38" t="n">
-        <v>432581</v>
+        <v>452098.992</v>
       </c>
       <c r="J38" t="n">
-        <v>269136.992</v>
+        <v>832681.024</v>
       </c>
       <c r="K38" t="n">
-        <v>414349.984</v>
+        <v>829841.9840000001</v>
       </c>
       <c r="L38" t="n">
-        <v>452098.992</v>
+        <v>967512</v>
       </c>
       <c r="M38" t="n">
-        <v>832681.024</v>
+        <v>1053564.032</v>
       </c>
       <c r="N38" t="n">
-        <v>829841.9840000001</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>967512</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1053564.032</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -8170,73 +7605,58 @@
         <v>0</v>
       </c>
       <c r="AR38" t="n">
-        <v>0</v>
+        <v>1453038.976</v>
       </c>
       <c r="AS38" t="n">
-        <v>0</v>
+        <v>1470386.944</v>
       </c>
       <c r="AT38" t="n">
-        <v>0</v>
+        <v>1392505.984</v>
       </c>
       <c r="AU38" t="n">
-        <v>1453038.976</v>
+        <v>1740115.968</v>
       </c>
       <c r="AV38" t="n">
-        <v>1470386.944</v>
+        <v>1472599.04</v>
       </c>
       <c r="AW38" t="n">
-        <v>1392505.984</v>
+        <v>1491528.96</v>
       </c>
       <c r="AX38" t="n">
-        <v>1740115.968</v>
+        <v>1495398.016</v>
       </c>
       <c r="AY38" t="n">
-        <v>1472599.04</v>
+        <v>1724516.992</v>
       </c>
       <c r="AZ38" t="n">
-        <v>1491528.96</v>
+        <v>1925421.056</v>
       </c>
       <c r="BA38" t="n">
-        <v>1495398.016</v>
+        <v>2462838.016</v>
       </c>
       <c r="BB38" t="n">
-        <v>1724516.992</v>
+        <v>2781473.024</v>
       </c>
       <c r="BC38" t="n">
-        <v>1925421.056</v>
+        <v>3101413.888</v>
       </c>
       <c r="BD38" t="n">
-        <v>2462838.016</v>
+        <v>2998923.008</v>
       </c>
       <c r="BE38" t="n">
-        <v>1848280.064</v>
+        <v>2620365.056</v>
       </c>
       <c r="BF38" t="n">
-        <v>2781473.024</v>
+        <v>2703335.936</v>
       </c>
       <c r="BG38" t="n">
-        <v>2346076.928</v>
+        <v>2617971.968</v>
       </c>
       <c r="BH38" t="n">
-        <v>3101413.888</v>
+        <v>2958966.016</v>
       </c>
       <c r="BI38" t="n">
-        <v>2998923.008</v>
-      </c>
-      <c r="BJ38" t="n">
-        <v>2620365.056</v>
-      </c>
-      <c r="BK38" t="n">
-        <v>2703335.936</v>
-      </c>
-      <c r="BL38" t="n">
-        <v>1524098.944</v>
-      </c>
-      <c r="BM38" t="n">
-        <v>1367964.032</v>
-      </c>
-      <c r="BN38" t="n">
-        <v>1445867.008</v>
+        <v>2773645.056</v>
       </c>
     </row>
     <row r="39">
@@ -8390,54 +7810,39 @@
         <v>0</v>
       </c>
       <c r="AX39" t="n">
-        <v>0</v>
+        <v>100006</v>
       </c>
       <c r="AY39" t="n">
-        <v>0</v>
+        <v>100407</v>
       </c>
       <c r="AZ39" t="n">
-        <v>0</v>
+        <v>101058</v>
       </c>
       <c r="BA39" t="n">
-        <v>100006</v>
+        <v>102116</v>
       </c>
       <c r="BB39" t="n">
-        <v>100407</v>
+        <v>0</v>
       </c>
       <c r="BC39" t="n">
-        <v>101058</v>
+        <v>0</v>
       </c>
       <c r="BD39" t="n">
-        <v>102116</v>
+        <v>0</v>
       </c>
       <c r="BE39" t="n">
-        <v>2116304</v>
+        <v>0</v>
       </c>
       <c r="BF39" t="n">
         <v>0</v>
       </c>
       <c r="BG39" t="n">
-        <v>2220456.96</v>
+        <v>0</v>
       </c>
       <c r="BH39" t="n">
         <v>0</v>
       </c>
       <c r="BI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8448,49 +7853,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>193260.992</v>
+        <v>151124</v>
       </c>
       <c r="C40" t="n">
-        <v>188110</v>
+        <v>147470</v>
       </c>
       <c r="D40" t="n">
-        <v>174610</v>
+        <v>137302</v>
       </c>
       <c r="E40" t="n">
-        <v>151124</v>
+        <v>131176</v>
       </c>
       <c r="F40" t="n">
-        <v>147470</v>
+        <v>150344</v>
       </c>
       <c r="G40" t="n">
-        <v>137302</v>
+        <v>142591.008</v>
       </c>
       <c r="H40" t="n">
-        <v>131176</v>
+        <v>121419</v>
       </c>
       <c r="I40" t="n">
-        <v>150344</v>
+        <v>96465</v>
       </c>
       <c r="J40" t="n">
-        <v>142591.008</v>
+        <v>122160</v>
       </c>
       <c r="K40" t="n">
-        <v>121419</v>
+        <v>109794</v>
       </c>
       <c r="L40" t="n">
-        <v>96465</v>
+        <v>101464</v>
       </c>
       <c r="M40" t="n">
-        <v>122160</v>
+        <v>93182</v>
       </c>
       <c r="N40" t="n">
-        <v>109794</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>101464</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>93182</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -8574,73 +7979,58 @@
         <v>0</v>
       </c>
       <c r="AR40" t="n">
-        <v>0</v>
+        <v>336064.992</v>
       </c>
       <c r="AS40" t="n">
-        <v>0</v>
+        <v>341105.984</v>
       </c>
       <c r="AT40" t="n">
-        <v>0</v>
+        <v>522255.008</v>
       </c>
       <c r="AU40" t="n">
-        <v>336064.992</v>
+        <v>423876</v>
       </c>
       <c r="AV40" t="n">
-        <v>341105.984</v>
+        <v>401729.984</v>
       </c>
       <c r="AW40" t="n">
-        <v>522255.008</v>
+        <v>464932.992</v>
       </c>
       <c r="AX40" t="n">
-        <v>423876</v>
+        <v>539753.9840000001</v>
       </c>
       <c r="AY40" t="n">
-        <v>401729.984</v>
+        <v>668054.0159999999</v>
       </c>
       <c r="AZ40" t="n">
-        <v>464932.992</v>
+        <v>2465207.04</v>
       </c>
       <c r="BA40" t="n">
-        <v>539753.9840000001</v>
+        <v>2592900.096</v>
       </c>
       <c r="BB40" t="n">
-        <v>668054.0159999999</v>
+        <v>2576560.128</v>
       </c>
       <c r="BC40" t="n">
-        <v>2465207.04</v>
+        <v>2070498.944</v>
       </c>
       <c r="BD40" t="n">
-        <v>2592900.096</v>
+        <v>1918376.96</v>
       </c>
       <c r="BE40" t="n">
-        <v>300856.992</v>
+        <v>1860647.04</v>
       </c>
       <c r="BF40" t="n">
-        <v>2576560.128</v>
+        <v>1663261.056</v>
       </c>
       <c r="BG40" t="n">
-        <v>424017.984</v>
+        <v>1473486.976</v>
       </c>
       <c r="BH40" t="n">
-        <v>2070498.944</v>
+        <v>1525345.024</v>
       </c>
       <c r="BI40" t="n">
-        <v>1918376.96</v>
-      </c>
-      <c r="BJ40" t="n">
-        <v>1860647.04</v>
-      </c>
-      <c r="BK40" t="n">
-        <v>1663261.056</v>
-      </c>
-      <c r="BL40" t="n">
-        <v>496468</v>
-      </c>
-      <c r="BM40" t="n">
-        <v>489572.992</v>
-      </c>
-      <c r="BN40" t="n">
-        <v>489156</v>
+        <v>1417945.984</v>
       </c>
     </row>
     <row r="41">
@@ -8782,67 +8172,52 @@
         <v>0</v>
       </c>
       <c r="AT41" t="n">
-        <v>0</v>
+        <v>156198</v>
       </c>
       <c r="AU41" t="n">
-        <v>0</v>
+        <v>156963.008</v>
       </c>
       <c r="AV41" t="n">
-        <v>0</v>
+        <v>157496</v>
       </c>
       <c r="AW41" t="n">
-        <v>156198</v>
+        <v>157883.008</v>
       </c>
       <c r="AX41" t="n">
-        <v>156963.008</v>
+        <v>161959.008</v>
       </c>
       <c r="AY41" t="n">
-        <v>157496</v>
+        <v>14503</v>
       </c>
       <c r="AZ41" t="n">
-        <v>157883.008</v>
+        <v>0</v>
       </c>
       <c r="BA41" t="n">
-        <v>161959.008</v>
+        <v>0</v>
       </c>
       <c r="BB41" t="n">
-        <v>14503</v>
+        <v>6877</v>
       </c>
       <c r="BC41" t="n">
-        <v>0</v>
+        <v>63313</v>
       </c>
       <c r="BD41" t="n">
-        <v>0</v>
+        <v>85547</v>
       </c>
       <c r="BE41" t="n">
-        <v>634844.992</v>
+        <v>110374</v>
       </c>
       <c r="BF41" t="n">
-        <v>6877</v>
+        <v>120949</v>
       </c>
       <c r="BG41" t="n">
-        <v>636409.9840000001</v>
+        <v>128699</v>
       </c>
       <c r="BH41" t="n">
-        <v>63313</v>
+        <v>155434</v>
       </c>
       <c r="BI41" t="n">
-        <v>85547</v>
-      </c>
-      <c r="BJ41" t="n">
-        <v>110374</v>
-      </c>
-      <c r="BK41" t="n">
-        <v>120949</v>
-      </c>
-      <c r="BL41" t="n">
-        <v>1091196.032</v>
-      </c>
-      <c r="BM41" t="n">
-        <v>968726.0159999999</v>
-      </c>
-      <c r="BN41" t="n">
-        <v>955420.992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -9031,21 +8406,6 @@
       <c r="BI42" t="n">
         <v>0</v>
       </c>
-      <c r="BJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9054,49 +8414,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6379</v>
+        <v>4294</v>
       </c>
       <c r="C43" t="n">
-        <v>7775</v>
+        <v>4505</v>
       </c>
       <c r="D43" t="n">
-        <v>4601</v>
+        <v>4714</v>
       </c>
       <c r="E43" t="n">
-        <v>4294</v>
+        <v>5828</v>
       </c>
       <c r="F43" t="n">
-        <v>4505</v>
+        <v>4696</v>
       </c>
       <c r="G43" t="n">
-        <v>4714</v>
+        <v>5540</v>
       </c>
       <c r="H43" t="n">
-        <v>5828</v>
+        <v>55201</v>
       </c>
       <c r="I43" t="n">
-        <v>4696</v>
+        <v>52384</v>
       </c>
       <c r="J43" t="n">
-        <v>5540</v>
+        <v>120692</v>
       </c>
       <c r="K43" t="n">
-        <v>55201</v>
+        <v>123926</v>
       </c>
       <c r="L43" t="n">
-        <v>52384</v>
+        <v>127203</v>
       </c>
       <c r="M43" t="n">
-        <v>120692</v>
+        <v>126690</v>
       </c>
       <c r="N43" t="n">
-        <v>123926</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>127203</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>126690</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -9180,73 +8540,58 @@
         <v>0</v>
       </c>
       <c r="AR43" t="n">
-        <v>0</v>
+        <v>254662</v>
       </c>
       <c r="AS43" t="n">
-        <v>0</v>
+        <v>208895.008</v>
       </c>
       <c r="AT43" t="n">
-        <v>0</v>
+        <v>54599</v>
       </c>
       <c r="AU43" t="n">
-        <v>254662</v>
+        <v>51075</v>
       </c>
       <c r="AV43" t="n">
-        <v>208895.008</v>
+        <v>47607</v>
       </c>
       <c r="AW43" t="n">
-        <v>54599</v>
+        <v>46265</v>
       </c>
       <c r="AX43" t="n">
-        <v>51075</v>
+        <v>48695</v>
       </c>
       <c r="AY43" t="n">
-        <v>47607</v>
+        <v>45839</v>
       </c>
       <c r="AZ43" t="n">
-        <v>46265</v>
+        <v>45105</v>
       </c>
       <c r="BA43" t="n">
-        <v>48695</v>
+        <v>46349</v>
       </c>
       <c r="BB43" t="n">
-        <v>45839</v>
+        <v>47125</v>
       </c>
       <c r="BC43" t="n">
-        <v>45105</v>
+        <v>75433</v>
       </c>
       <c r="BD43" t="n">
-        <v>46349</v>
+        <v>80658</v>
       </c>
       <c r="BE43" t="n">
-        <v>283257.984</v>
+        <v>82467</v>
       </c>
       <c r="BF43" t="n">
-        <v>47125</v>
+        <v>83460</v>
       </c>
       <c r="BG43" t="n">
-        <v>296668</v>
+        <v>81808</v>
       </c>
       <c r="BH43" t="n">
-        <v>75433</v>
+        <v>106426</v>
       </c>
       <c r="BI43" t="n">
-        <v>80658</v>
-      </c>
-      <c r="BJ43" t="n">
-        <v>82467</v>
-      </c>
-      <c r="BK43" t="n">
-        <v>83460</v>
-      </c>
-      <c r="BL43" t="n">
-        <v>447991.008</v>
-      </c>
-      <c r="BM43" t="n">
-        <v>473524.992</v>
-      </c>
-      <c r="BN43" t="n">
-        <v>475487.008</v>
+        <v>107084</v>
       </c>
     </row>
     <row r="44">
@@ -9435,21 +8780,6 @@
       <c r="BI44" t="n">
         <v>0</v>
       </c>
-      <c r="BJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9637,21 +8967,6 @@
       <c r="BI45" t="n">
         <v>0</v>
       </c>
-      <c r="BJ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9825,34 +9140,19 @@
         <v>0</v>
       </c>
       <c r="BE46" t="n">
-        <v>3038526.976</v>
+        <v>0</v>
       </c>
       <c r="BF46" t="n">
         <v>0</v>
       </c>
       <c r="BG46" t="n">
-        <v>2894147.072</v>
+        <v>0</v>
       </c>
       <c r="BH46" t="n">
         <v>0</v>
       </c>
       <c r="BI46" t="n">
         <v>0</v>
-      </c>
-      <c r="BJ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL46" t="n">
-        <v>4135837.952</v>
-      </c>
-      <c r="BM46" t="n">
-        <v>3426486.016</v>
-      </c>
-      <c r="BN46" t="n">
-        <v>3506492.928</v>
       </c>
     </row>
     <row r="47">
@@ -9862,49 +9162,49 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>263320</v>
+        <v>230538</v>
       </c>
       <c r="C47" t="n">
+        <v>296548</v>
+      </c>
+      <c r="D47" t="n">
         <v>230538</v>
       </c>
-      <c r="D47" t="n">
-        <v>290612</v>
-      </c>
       <c r="E47" t="n">
+        <v>215758</v>
+      </c>
+      <c r="F47" t="n">
         <v>230538</v>
       </c>
-      <c r="F47" t="n">
-        <v>296548</v>
-      </c>
       <c r="G47" t="n">
+        <v>318556</v>
+      </c>
+      <c r="H47" t="n">
         <v>230538</v>
       </c>
-      <c r="H47" t="n">
-        <v>215758</v>
-      </c>
       <c r="I47" t="n">
-        <v>230538</v>
+        <v>297315.008</v>
       </c>
       <c r="J47" t="n">
-        <v>318556</v>
+        <v>396907.008</v>
       </c>
       <c r="K47" t="n">
-        <v>230538</v>
+        <v>516529.984</v>
       </c>
       <c r="L47" t="n">
-        <v>297315.008</v>
+        <v>452995.008</v>
       </c>
       <c r="M47" t="n">
-        <v>396907.008</v>
+        <v>326801.984</v>
       </c>
       <c r="N47" t="n">
-        <v>516529.984</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>452995.008</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>326801.984</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
@@ -9988,73 +9288,58 @@
         <v>0</v>
       </c>
       <c r="AR47" t="n">
-        <v>0</v>
+        <v>635619.008</v>
       </c>
       <c r="AS47" t="n">
-        <v>0</v>
+        <v>711776</v>
       </c>
       <c r="AT47" t="n">
-        <v>0</v>
+        <v>564024</v>
       </c>
       <c r="AU47" t="n">
-        <v>635619.008</v>
+        <v>794670.0159999999</v>
       </c>
       <c r="AV47" t="n">
-        <v>711776</v>
+        <v>644076.992</v>
       </c>
       <c r="AW47" t="n">
-        <v>564024</v>
+        <v>722387.968</v>
       </c>
       <c r="AX47" t="n">
-        <v>794670.0159999999</v>
+        <v>188192.992</v>
       </c>
       <c r="AY47" t="n">
-        <v>644076.992</v>
+        <v>346836</v>
       </c>
       <c r="AZ47" t="n">
-        <v>722387.968</v>
+        <v>447732</v>
       </c>
       <c r="BA47" t="n">
-        <v>188192.992</v>
+        <v>531384</v>
       </c>
       <c r="BB47" t="n">
-        <v>346836</v>
+        <v>562563.008</v>
       </c>
       <c r="BC47" t="n">
-        <v>447732</v>
+        <v>447833.984</v>
       </c>
       <c r="BD47" t="n">
-        <v>531384</v>
+        <v>366552.992</v>
       </c>
       <c r="BE47" t="n">
-        <v>4207597.056</v>
+        <v>529222.0159999999</v>
       </c>
       <c r="BF47" t="n">
-        <v>562563.008</v>
+        <v>388275.008</v>
       </c>
       <c r="BG47" t="n">
-        <v>3525227.008</v>
+        <v>482817.984</v>
       </c>
       <c r="BH47" t="n">
-        <v>447833.984</v>
+        <v>592153.9840000001</v>
       </c>
       <c r="BI47" t="n">
-        <v>366552.992</v>
-      </c>
-      <c r="BJ47" t="n">
-        <v>529222.0159999999</v>
-      </c>
-      <c r="BK47" t="n">
-        <v>388275.008</v>
-      </c>
-      <c r="BL47" t="n">
-        <v>5029447.424000001</v>
-      </c>
-      <c r="BM47" t="n">
-        <v>4220526.848</v>
-      </c>
-      <c r="BN47" t="n">
-        <v>4487638.016000001</v>
+        <v>750369.024</v>
       </c>
     </row>
     <row r="48">
@@ -10064,16 +9349,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>47418</v>
+        <v>54832</v>
       </c>
       <c r="C48" t="n">
-        <v>54832</v>
+        <v>62735</v>
       </c>
       <c r="D48" t="n">
-        <v>54832</v>
+        <v>62735</v>
       </c>
       <c r="E48" t="n">
-        <v>54832</v>
+        <v>62735</v>
       </c>
       <c r="F48" t="n">
         <v>62735</v>
@@ -10082,31 +9367,31 @@
         <v>62735</v>
       </c>
       <c r="H48" t="n">
-        <v>62735</v>
+        <v>70587</v>
       </c>
       <c r="I48" t="n">
-        <v>62735</v>
+        <v>70587</v>
       </c>
       <c r="J48" t="n">
-        <v>62735</v>
+        <v>70587</v>
       </c>
       <c r="K48" t="n">
         <v>70587</v>
       </c>
       <c r="L48" t="n">
-        <v>70587</v>
+        <v>83896</v>
       </c>
       <c r="M48" t="n">
-        <v>70587</v>
+        <v>83896</v>
       </c>
       <c r="N48" t="n">
-        <v>70587</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>83896</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>83896</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
@@ -10190,73 +9475,58 @@
         <v>0</v>
       </c>
       <c r="AR48" t="n">
-        <v>0</v>
+        <v>249320.992</v>
       </c>
       <c r="AS48" t="n">
-        <v>0</v>
+        <v>249320.992</v>
       </c>
       <c r="AT48" t="n">
-        <v>0</v>
+        <v>249320.992</v>
       </c>
       <c r="AU48" t="n">
         <v>249320.992</v>
       </c>
       <c r="AV48" t="n">
-        <v>249320.992</v>
+        <v>253908.992</v>
       </c>
       <c r="AW48" t="n">
-        <v>249320.992</v>
+        <v>253908.992</v>
       </c>
       <c r="AX48" t="n">
-        <v>249320.992</v>
+        <v>253908.992</v>
       </c>
       <c r="AY48" t="n">
         <v>253908.992</v>
       </c>
       <c r="AZ48" t="n">
-        <v>253908.992</v>
+        <v>258496.992</v>
       </c>
       <c r="BA48" t="n">
-        <v>253908.992</v>
+        <v>258496.992</v>
       </c>
       <c r="BB48" t="n">
-        <v>253908.992</v>
+        <v>258496.992</v>
       </c>
       <c r="BC48" t="n">
-        <v>258496.992</v>
+        <v>263084.992</v>
       </c>
       <c r="BD48" t="n">
-        <v>258496.992</v>
+        <v>263084.992</v>
       </c>
       <c r="BE48" t="n">
-        <v>2022782.976</v>
+        <v>263084.992</v>
       </c>
       <c r="BF48" t="n">
-        <v>258496.992</v>
+        <v>267672.992</v>
       </c>
       <c r="BG48" t="n">
-        <v>2022782.976</v>
+        <v>267674</v>
       </c>
       <c r="BH48" t="n">
-        <v>263084.992</v>
+        <v>267672.992</v>
       </c>
       <c r="BI48" t="n">
-        <v>263084.992</v>
-      </c>
-      <c r="BJ48" t="n">
-        <v>263084.992</v>
-      </c>
-      <c r="BK48" t="n">
         <v>267672.992</v>
-      </c>
-      <c r="BL48" t="n">
-        <v>2022782.976</v>
-      </c>
-      <c r="BM48" t="n">
-        <v>1322782.976</v>
-      </c>
-      <c r="BN48" t="n">
-        <v>1322782.976</v>
       </c>
     </row>
     <row r="49">
@@ -10266,16 +9536,16 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>176899.008</v>
+        <v>169484.992</v>
       </c>
       <c r="C49" t="n">
-        <v>169484.992</v>
+        <v>161582</v>
       </c>
       <c r="D49" t="n">
-        <v>169484.992</v>
+        <v>161582</v>
       </c>
       <c r="E49" t="n">
-        <v>169484.992</v>
+        <v>161582</v>
       </c>
       <c r="F49" t="n">
         <v>161582</v>
@@ -10284,31 +9554,31 @@
         <v>161582</v>
       </c>
       <c r="H49" t="n">
-        <v>161582</v>
+        <v>153730</v>
       </c>
       <c r="I49" t="n">
-        <v>161582</v>
+        <v>153730</v>
       </c>
       <c r="J49" t="n">
-        <v>161582</v>
+        <v>153730</v>
       </c>
       <c r="K49" t="n">
-        <v>153730</v>
+        <v>153731.008</v>
       </c>
       <c r="L49" t="n">
-        <v>153730</v>
+        <v>140422</v>
       </c>
       <c r="M49" t="n">
-        <v>153730</v>
+        <v>140422</v>
       </c>
       <c r="N49" t="n">
-        <v>153731.008</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>140422</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>140422</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
@@ -10392,73 +9662,58 @@
         <v>0</v>
       </c>
       <c r="AR49" t="n">
-        <v>0</v>
+        <v>46729</v>
       </c>
       <c r="AS49" t="n">
-        <v>0</v>
+        <v>46729</v>
       </c>
       <c r="AT49" t="n">
-        <v>0</v>
+        <v>46729</v>
       </c>
       <c r="AU49" t="n">
         <v>46729</v>
       </c>
       <c r="AV49" t="n">
-        <v>46729</v>
+        <v>42141</v>
       </c>
       <c r="AW49" t="n">
-        <v>46729</v>
+        <v>42141</v>
       </c>
       <c r="AX49" t="n">
-        <v>46729</v>
+        <v>42140</v>
       </c>
       <c r="AY49" t="n">
-        <v>42141</v>
+        <v>42140</v>
       </c>
       <c r="AZ49" t="n">
-        <v>42141</v>
+        <v>37552</v>
       </c>
       <c r="BA49" t="n">
-        <v>42140</v>
+        <v>37552</v>
       </c>
       <c r="BB49" t="n">
-        <v>42140</v>
+        <v>37552</v>
       </c>
       <c r="BC49" t="n">
-        <v>37552</v>
+        <v>32964</v>
       </c>
       <c r="BD49" t="n">
-        <v>37552</v>
+        <v>32964</v>
       </c>
       <c r="BE49" t="n">
-        <v>105410</v>
+        <v>32964</v>
       </c>
       <c r="BF49" t="n">
-        <v>37552</v>
+        <v>28376</v>
       </c>
       <c r="BG49" t="n">
-        <v>105601</v>
+        <v>28376</v>
       </c>
       <c r="BH49" t="n">
-        <v>32964</v>
+        <v>28376</v>
       </c>
       <c r="BI49" t="n">
-        <v>32964</v>
-      </c>
-      <c r="BJ49" t="n">
-        <v>32964</v>
-      </c>
-      <c r="BK49" t="n">
         <v>28376</v>
-      </c>
-      <c r="BL49" t="n">
-        <v>106096</v>
-      </c>
-      <c r="BM49" t="n">
-        <v>106096</v>
-      </c>
-      <c r="BN49" t="n">
-        <v>97126</v>
       </c>
     </row>
     <row r="50">
@@ -10647,21 +9902,6 @@
       <c r="BI50" t="n">
         <v>0</v>
       </c>
-      <c r="BJ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10694,25 +9934,25 @@
         <v>6221</v>
       </c>
       <c r="J51" t="n">
-        <v>6221</v>
+        <v>138903.008</v>
       </c>
       <c r="K51" t="n">
-        <v>6221</v>
+        <v>138900.992</v>
       </c>
       <c r="L51" t="n">
-        <v>6221</v>
+        <v>6220</v>
       </c>
       <c r="M51" t="n">
-        <v>138903.008</v>
+        <v>6220</v>
       </c>
       <c r="N51" t="n">
-        <v>138900.992</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>6220</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>6220</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
@@ -10796,73 +10036,58 @@
         <v>0</v>
       </c>
       <c r="AR51" t="n">
-        <v>0</v>
+        <v>372633.984</v>
       </c>
       <c r="AS51" t="n">
-        <v>0</v>
+        <v>372633.984</v>
       </c>
       <c r="AT51" t="n">
-        <v>0</v>
+        <v>580620.032</v>
       </c>
       <c r="AU51" t="n">
-        <v>372633.984</v>
+        <v>580620.032</v>
       </c>
       <c r="AV51" t="n">
-        <v>372633.984</v>
+        <v>384563.008</v>
       </c>
       <c r="AW51" t="n">
-        <v>580620.032</v>
+        <v>384563.008</v>
       </c>
       <c r="AX51" t="n">
-        <v>580620.032</v>
+        <v>304699.008</v>
       </c>
       <c r="AY51" t="n">
-        <v>384563.008</v>
+        <v>304699.008</v>
       </c>
       <c r="AZ51" t="n">
-        <v>384563.008</v>
+        <v>304699.008</v>
       </c>
       <c r="BA51" t="n">
         <v>304699.008</v>
       </c>
       <c r="BB51" t="n">
-        <v>304699.008</v>
+        <v>504592</v>
       </c>
       <c r="BC51" t="n">
-        <v>304699.008</v>
+        <v>110664</v>
       </c>
       <c r="BD51" t="n">
-        <v>304699.008</v>
+        <v>400489.984</v>
       </c>
       <c r="BE51" t="n">
-        <v>1958439.04</v>
+        <v>400489.984</v>
       </c>
       <c r="BF51" t="n">
-        <v>504592</v>
+        <v>120410</v>
       </c>
       <c r="BG51" t="n">
-        <v>788038.976</v>
+        <v>120410</v>
       </c>
       <c r="BH51" t="n">
-        <v>110664</v>
+        <v>630769.9840000001</v>
       </c>
       <c r="BI51" t="n">
-        <v>400489.984</v>
-      </c>
-      <c r="BJ51" t="n">
-        <v>400489.984</v>
-      </c>
-      <c r="BK51" t="n">
-        <v>120410</v>
-      </c>
-      <c r="BL51" t="n">
-        <v>1805131.008</v>
-      </c>
-      <c r="BM51" t="n">
-        <v>2693432.064</v>
-      </c>
-      <c r="BN51" t="n">
-        <v>2685389.056</v>
+        <v>630769.9840000001</v>
       </c>
     </row>
     <row r="52">
@@ -10872,49 +10097,49 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>32782</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>66010</v>
       </c>
       <c r="D52" t="n">
-        <v>60074</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>-14780</v>
       </c>
       <c r="F52" t="n">
-        <v>66010</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>88018</v>
       </c>
       <c r="H52" t="n">
-        <v>-14780</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>66777</v>
       </c>
       <c r="J52" t="n">
-        <v>88018</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>116880</v>
       </c>
       <c r="L52" t="n">
-        <v>66777</v>
+        <v>183892.992</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>57510</v>
       </c>
       <c r="N52" t="n">
-        <v>116880</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>183892.992</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>57510</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
@@ -10998,73 +10223,58 @@
         <v>0</v>
       </c>
       <c r="AR52" t="n">
-        <v>0</v>
+        <v>118839</v>
       </c>
       <c r="AS52" t="n">
-        <v>0</v>
+        <v>195620</v>
       </c>
       <c r="AT52" t="n">
         <v>0</v>
       </c>
       <c r="AU52" t="n">
-        <v>118839</v>
+        <v>131154</v>
       </c>
       <c r="AV52" t="n">
-        <v>195620</v>
+        <v>178544.992</v>
       </c>
       <c r="AW52" t="n">
-        <v>0</v>
+        <v>263856</v>
       </c>
       <c r="AX52" t="n">
-        <v>131154</v>
+        <v>0</v>
       </c>
       <c r="AY52" t="n">
-        <v>178544.992</v>
+        <v>161940.992</v>
       </c>
       <c r="AZ52" t="n">
-        <v>263856</v>
+        <v>266280</v>
       </c>
       <c r="BA52" t="n">
-        <v>0</v>
+        <v>351071.008</v>
       </c>
       <c r="BB52" t="n">
-        <v>161940.992</v>
+        <v>175660.992</v>
       </c>
       <c r="BC52" t="n">
-        <v>266280</v>
+        <v>438740</v>
       </c>
       <c r="BD52" t="n">
-        <v>351071.008</v>
+        <v>0</v>
       </c>
       <c r="BE52" t="n">
-        <v>0</v>
+        <v>162327.008</v>
       </c>
       <c r="BF52" t="n">
-        <v>175660.992</v>
+        <v>302168</v>
       </c>
       <c r="BG52" t="n">
-        <v>494705.984</v>
+        <v>397609.984</v>
       </c>
       <c r="BH52" t="n">
-        <v>438740</v>
+        <v>0</v>
       </c>
       <c r="BI52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ52" t="n">
-        <v>162327.008</v>
-      </c>
-      <c r="BK52" t="n">
-        <v>302168</v>
-      </c>
-      <c r="BL52" t="n">
-        <v>995166.976</v>
-      </c>
-      <c r="BM52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN52" t="n">
-        <v>286481.984</v>
+        <v>167808</v>
       </c>
     </row>
     <row r="53">
@@ -11098,25 +10308,25 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>33687</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>36431</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>38564</v>
       </c>
       <c r="M53" t="n">
-        <v>33687</v>
+        <v>38754</v>
       </c>
       <c r="N53" t="n">
-        <v>36431</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>38564</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>38754</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
@@ -11251,21 +10461,6 @@
         <v>0</v>
       </c>
       <c r="BI53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11455,21 +10650,6 @@
       <c r="BI54" t="n">
         <v>0</v>
       </c>
-      <c r="BJ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11604,73 +10784,58 @@
         <v>0</v>
       </c>
       <c r="AR55" t="n">
-        <v>0</v>
+        <v>-151904</v>
       </c>
       <c r="AS55" t="n">
-        <v>0</v>
+        <v>-152528</v>
       </c>
       <c r="AT55" t="n">
-        <v>0</v>
+        <v>-312646.016</v>
       </c>
       <c r="AU55" t="n">
-        <v>-151904</v>
+        <v>-213154</v>
       </c>
       <c r="AV55" t="n">
-        <v>-152528</v>
+        <v>-215080.992</v>
       </c>
       <c r="AW55" t="n">
-        <v>-312646.016</v>
+        <v>-222080.992</v>
       </c>
       <c r="AX55" t="n">
-        <v>-213154</v>
+        <v>-412555.008</v>
       </c>
       <c r="AY55" t="n">
-        <v>-215080.992</v>
+        <v>-415852.992</v>
       </c>
       <c r="AZ55" t="n">
-        <v>-222080.992</v>
+        <v>-419296</v>
       </c>
       <c r="BA55" t="n">
-        <v>-412555.008</v>
+        <v>-420435.008</v>
       </c>
       <c r="BB55" t="n">
-        <v>-415852.992</v>
+        <v>-413739.008</v>
       </c>
       <c r="BC55" t="n">
-        <v>-419296</v>
+        <v>-397619.008</v>
       </c>
       <c r="BD55" t="n">
-        <v>-420435.008</v>
+        <v>-329985.984</v>
       </c>
       <c r="BE55" t="n">
-        <v>120965</v>
+        <v>-329644</v>
       </c>
       <c r="BF55" t="n">
-        <v>-413739.008</v>
+        <v>-330352</v>
       </c>
       <c r="BG55" t="n">
-        <v>114098</v>
+        <v>-331252</v>
       </c>
       <c r="BH55" t="n">
-        <v>-397619.008</v>
+        <v>-334664.992</v>
       </c>
       <c r="BI55" t="n">
-        <v>-329985.984</v>
-      </c>
-      <c r="BJ55" t="n">
-        <v>-329644</v>
-      </c>
-      <c r="BK55" t="n">
-        <v>-330352</v>
-      </c>
-      <c r="BL55" t="n">
-        <v>100270</v>
-      </c>
-      <c r="BM55" t="n">
-        <v>98216</v>
-      </c>
-      <c r="BN55" t="n">
-        <v>95858</v>
+        <v>-344257.984</v>
       </c>
     </row>
     <row r="56">
@@ -11859,21 +11024,6 @@
       <c r="BI56" t="n">
         <v>0</v>
       </c>
-      <c r="BJ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN56" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11882,35 +11032,29 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>705600</v>
+        <v>792380.992</v>
       </c>
       <c r="C57" t="n">
-        <v>700968</v>
+        <v>799296</v>
       </c>
       <c r="D57" t="n">
-        <v>777288.064</v>
+        <v>746409.024</v>
       </c>
       <c r="E57" t="n">
-        <v>792380.992</v>
+        <v>779934.08</v>
       </c>
       <c r="F57" t="n">
-        <v>799296</v>
+        <v>893075.968</v>
       </c>
       <c r="G57" t="n">
-        <v>746409.024</v>
+        <v>841236.992</v>
       </c>
       <c r="H57" t="n">
-        <v>779934.08</v>
-      </c>
-      <c r="I57" t="n">
-        <v>893075.968</v>
-      </c>
-      <c r="J57" t="n">
-        <v>841236.992</v>
-      </c>
-      <c r="K57" t="n">
         <v>853384</v>
       </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
@@ -11961,11 +11105,6 @@
       <c r="BG57" t="inlineStr"/>
       <c r="BH57" t="inlineStr"/>
       <c r="BI57" t="inlineStr"/>
-      <c r="BJ57" t="inlineStr"/>
-      <c r="BK57" t="inlineStr"/>
-      <c r="BL57" t="inlineStr"/>
-      <c r="BM57" t="inlineStr"/>
-      <c r="BN57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -11974,35 +11113,29 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-244286</v>
+        <v>-302524</v>
       </c>
       <c r="C58" t="n">
-        <v>-235947.008</v>
+        <v>-286110.016</v>
       </c>
       <c r="D58" t="n">
-        <v>-260330.96</v>
+        <v>-310804</v>
       </c>
       <c r="E58" t="n">
-        <v>-302524</v>
+        <v>-265329.984</v>
       </c>
       <c r="F58" t="n">
-        <v>-286110.016</v>
+        <v>-312886.016</v>
       </c>
       <c r="G58" t="n">
-        <v>-310804</v>
+        <v>-308606.016</v>
       </c>
       <c r="H58" t="n">
-        <v>-265329.984</v>
-      </c>
-      <c r="I58" t="n">
-        <v>-312886.016</v>
-      </c>
-      <c r="J58" t="n">
-        <v>-308606.016</v>
-      </c>
-      <c r="K58" t="n">
         <v>-310900</v>
       </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
@@ -12053,11 +11186,6 @@
       <c r="BG58" t="inlineStr"/>
       <c r="BH58" t="inlineStr"/>
       <c r="BI58" t="inlineStr"/>
-      <c r="BJ58" t="inlineStr"/>
-      <c r="BK58" t="inlineStr"/>
-      <c r="BL58" t="inlineStr"/>
-      <c r="BM58" t="inlineStr"/>
-      <c r="BN58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12066,53 +11194,47 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>461313.984</v>
+        <v>489856.992</v>
       </c>
       <c r="C59" t="n">
-        <v>465020.992</v>
+        <v>513185.984</v>
       </c>
       <c r="D59" t="n">
-        <v>516957.056</v>
+        <v>435604.992</v>
       </c>
       <c r="E59" t="n">
-        <v>489856.992</v>
+        <v>514604</v>
       </c>
       <c r="F59" t="n">
-        <v>513185.984</v>
+        <v>580190.0159999999</v>
       </c>
       <c r="G59" t="n">
-        <v>435604.992</v>
+        <v>532631.008</v>
       </c>
       <c r="H59" t="n">
-        <v>514604</v>
+        <v>542483.968</v>
       </c>
       <c r="I59" t="n">
-        <v>580190.0159999999</v>
+        <v>781146.112</v>
       </c>
       <c r="J59" t="n">
-        <v>532631.008</v>
+        <v>666475.008</v>
       </c>
       <c r="K59" t="n">
-        <v>542483.968</v>
+        <v>666475.008</v>
       </c>
       <c r="L59" t="n">
-        <v>781146.112</v>
+        <v>612073.9840000001</v>
       </c>
       <c r="M59" t="n">
-        <v>666475.008</v>
+        <v>628489.9840000001</v>
       </c>
       <c r="N59" t="n">
-        <v>666475.008</v>
-      </c>
-      <c r="O59" t="n">
-        <v>612073.9840000001</v>
-      </c>
-      <c r="P59" t="n">
-        <v>628489.9840000001</v>
-      </c>
-      <c r="Q59" t="n">
         <v>-1907038.976</v>
       </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
@@ -12139,68 +11261,59 @@
       <c r="AO59" t="inlineStr"/>
       <c r="AP59" t="inlineStr"/>
       <c r="AQ59" t="inlineStr"/>
-      <c r="AR59" t="inlineStr"/>
-      <c r="AS59" t="inlineStr"/>
-      <c r="AT59" t="inlineStr"/>
+      <c r="AR59" t="n">
+        <v>1017361.024</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>1108673.024</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>1121649.92</v>
+      </c>
       <c r="AU59" t="n">
-        <v>1017361.024</v>
+        <v>1093383.936</v>
       </c>
       <c r="AV59" t="n">
-        <v>1108673.024</v>
+        <v>966774.976</v>
       </c>
       <c r="AW59" t="n">
-        <v>1121649.92</v>
+        <v>1093627.008</v>
       </c>
       <c r="AX59" t="n">
-        <v>1093383.936</v>
+        <v>1414843.392</v>
       </c>
       <c r="AY59" t="n">
-        <v>966774.976</v>
+        <v>1331475.968</v>
       </c>
       <c r="AZ59" t="n">
-        <v>1093627.008</v>
+        <v>1320398.976</v>
       </c>
       <c r="BA59" t="n">
-        <v>1414843.392</v>
+        <v>1452711.04</v>
       </c>
       <c r="BB59" t="n">
-        <v>1331475.968</v>
+        <v>1384146.048</v>
       </c>
       <c r="BC59" t="n">
-        <v>1320398.976</v>
+        <v>1438275.84</v>
       </c>
       <c r="BD59" t="n">
-        <v>1452711.04</v>
+        <v>1448578.944</v>
       </c>
       <c r="BE59" t="n">
-        <v>933121.9840000001</v>
+        <v>1435416.96</v>
       </c>
       <c r="BF59" t="n">
-        <v>1384146.048</v>
+        <v>1440737.024</v>
       </c>
       <c r="BG59" t="n">
-        <v>1425022.976</v>
+        <v>1445559.296</v>
       </c>
       <c r="BH59" t="n">
-        <v>1438275.84</v>
+        <v>1501440</v>
       </c>
       <c r="BI59" t="n">
-        <v>1448578.944</v>
-      </c>
-      <c r="BJ59" t="n">
-        <v>1435416.96</v>
-      </c>
-      <c r="BK59" t="n">
-        <v>1440737.024</v>
-      </c>
-      <c r="BL59" t="n">
-        <v>1415253.12</v>
-      </c>
-      <c r="BM59" t="n">
-        <v>1116349.056</v>
-      </c>
-      <c r="BN59" t="n">
-        <v>1076792.96</v>
+        <v>1413689.984</v>
       </c>
     </row>
     <row r="60">
@@ -12210,53 +11323,47 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-339968</v>
+        <v>-351512</v>
       </c>
       <c r="C60" t="n">
-        <v>-332300.992</v>
+        <v>-363964.992</v>
       </c>
       <c r="D60" t="n">
-        <v>-371080</v>
+        <v>-414651.008</v>
       </c>
       <c r="E60" t="n">
-        <v>-351512</v>
+        <v>-388384</v>
       </c>
       <c r="F60" t="n">
-        <v>-363964.992</v>
+        <v>-399465.984</v>
       </c>
       <c r="G60" t="n">
-        <v>-414651.008</v>
+        <v>-386310.016</v>
       </c>
       <c r="H60" t="n">
-        <v>-388384</v>
+        <v>-398168.992</v>
       </c>
       <c r="I60" t="n">
-        <v>-399465.984</v>
+        <v>-623420.032</v>
       </c>
       <c r="J60" t="n">
-        <v>-386310.016</v>
+        <v>-434473.984</v>
       </c>
       <c r="K60" t="n">
-        <v>-398168.992</v>
+        <v>-434473.984</v>
       </c>
       <c r="L60" t="n">
-        <v>-623420.032</v>
+        <v>-441660.992</v>
       </c>
       <c r="M60" t="n">
-        <v>-434473.984</v>
+        <v>-476700.992</v>
       </c>
       <c r="N60" t="n">
-        <v>-434473.984</v>
-      </c>
-      <c r="O60" t="n">
-        <v>-441660.992</v>
-      </c>
-      <c r="P60" t="n">
-        <v>-476700.992</v>
-      </c>
-      <c r="Q60" t="n">
         <v>1352835.968</v>
       </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
@@ -12283,68 +11390,59 @@
       <c r="AO60" t="inlineStr"/>
       <c r="AP60" t="inlineStr"/>
       <c r="AQ60" t="inlineStr"/>
-      <c r="AR60" t="inlineStr"/>
-      <c r="AS60" t="inlineStr"/>
-      <c r="AT60" t="inlineStr"/>
+      <c r="AR60" t="n">
+        <v>-843788.992</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>-907820.032</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>-925853.952</v>
+      </c>
       <c r="AU60" t="n">
-        <v>-843788.992</v>
+        <v>-872156.992</v>
       </c>
       <c r="AV60" t="n">
-        <v>-907820.032</v>
+        <v>-819510.0159999999</v>
       </c>
       <c r="AW60" t="n">
-        <v>-925853.952</v>
+        <v>-899616</v>
       </c>
       <c r="AX60" t="n">
-        <v>-872156.992</v>
+        <v>-1167987.968</v>
       </c>
       <c r="AY60" t="n">
-        <v>-819510.0159999999</v>
+        <v>-1028532.992</v>
       </c>
       <c r="AZ60" t="n">
-        <v>-899616</v>
+        <v>-1095811.968</v>
       </c>
       <c r="BA60" t="n">
-        <v>-1167987.968</v>
+        <v>-1063921.984</v>
       </c>
       <c r="BB60" t="n">
-        <v>-1028532.992</v>
+        <v>-1051164.992</v>
       </c>
       <c r="BC60" t="n">
-        <v>-1095811.968</v>
+        <v>-1185082.88</v>
       </c>
       <c r="BD60" t="n">
-        <v>-1063921.984</v>
+        <v>-1044881.024</v>
       </c>
       <c r="BE60" t="n">
-        <v>-462278.016</v>
+        <v>-1036961.984</v>
       </c>
       <c r="BF60" t="n">
-        <v>-1051164.992</v>
+        <v>-1112712.96</v>
       </c>
       <c r="BG60" t="n">
-        <v>-478513.984</v>
+        <v>-1099320.064</v>
       </c>
       <c r="BH60" t="n">
-        <v>-1185082.88</v>
+        <v>-1055568</v>
       </c>
       <c r="BI60" t="n">
-        <v>-1044881.024</v>
-      </c>
-      <c r="BJ60" t="n">
-        <v>-1036961.984</v>
-      </c>
-      <c r="BK60" t="n">
-        <v>-1112712.96</v>
-      </c>
-      <c r="BL60" t="n">
-        <v>-451637.952</v>
-      </c>
-      <c r="BM60" t="n">
-        <v>-401495.008</v>
-      </c>
-      <c r="BN60" t="n">
-        <v>-418355.008</v>
+        <v>-1073782.016</v>
       </c>
     </row>
     <row r="61">
@@ -12354,53 +11452,47 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>121346</v>
+        <v>138344.992</v>
       </c>
       <c r="C61" t="n">
-        <v>132720</v>
+        <v>149220.992</v>
       </c>
       <c r="D61" t="n">
-        <v>145877.024</v>
+        <v>20954</v>
       </c>
       <c r="E61" t="n">
-        <v>138344.992</v>
+        <v>126220.016</v>
       </c>
       <c r="F61" t="n">
-        <v>149220.992</v>
+        <v>180724</v>
       </c>
       <c r="G61" t="n">
-        <v>20954</v>
+        <v>146320.992</v>
       </c>
       <c r="H61" t="n">
-        <v>126220.016</v>
+        <v>144315.008</v>
       </c>
       <c r="I61" t="n">
-        <v>180724</v>
+        <v>157726.016</v>
       </c>
       <c r="J61" t="n">
-        <v>146320.992</v>
+        <v>232000.992</v>
       </c>
       <c r="K61" t="n">
-        <v>144315.008</v>
+        <v>232000.992</v>
       </c>
       <c r="L61" t="n">
-        <v>157726.016</v>
+        <v>170412.992</v>
       </c>
       <c r="M61" t="n">
-        <v>232000.992</v>
+        <v>151788.992</v>
       </c>
       <c r="N61" t="n">
-        <v>232000.992</v>
-      </c>
-      <c r="O61" t="n">
-        <v>170412.992</v>
-      </c>
-      <c r="P61" t="n">
-        <v>151788.992</v>
-      </c>
-      <c r="Q61" t="n">
         <v>-554203.008</v>
       </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
@@ -12427,68 +11519,59 @@
       <c r="AO61" t="inlineStr"/>
       <c r="AP61" t="inlineStr"/>
       <c r="AQ61" t="inlineStr"/>
-      <c r="AR61" t="inlineStr"/>
-      <c r="AS61" t="inlineStr"/>
-      <c r="AT61" t="inlineStr"/>
+      <c r="AR61" t="n">
+        <v>173572</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>200852.992</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>195796.032</v>
+      </c>
       <c r="AU61" t="n">
-        <v>173572</v>
+        <v>221227.008</v>
       </c>
       <c r="AV61" t="n">
-        <v>200852.992</v>
+        <v>147264.992</v>
       </c>
       <c r="AW61" t="n">
-        <v>195796.032</v>
+        <v>194011.008</v>
       </c>
       <c r="AX61" t="n">
-        <v>221227.008</v>
+        <v>246855.008</v>
       </c>
       <c r="AY61" t="n">
-        <v>147264.992</v>
+        <v>302943.008</v>
       </c>
       <c r="AZ61" t="n">
-        <v>194011.008</v>
+        <v>224587.008</v>
       </c>
       <c r="BA61" t="n">
-        <v>246855.008</v>
+        <v>388788.992</v>
       </c>
       <c r="BB61" t="n">
-        <v>302943.008</v>
+        <v>332980.992</v>
       </c>
       <c r="BC61" t="n">
-        <v>224587.008</v>
+        <v>253192.96</v>
       </c>
       <c r="BD61" t="n">
-        <v>388788.992</v>
+        <v>403697.984</v>
       </c>
       <c r="BE61" t="n">
-        <v>470844</v>
+        <v>398455.008</v>
       </c>
       <c r="BF61" t="n">
-        <v>332980.992</v>
+        <v>328024</v>
       </c>
       <c r="BG61" t="n">
-        <v>946508.992</v>
+        <v>346239.008</v>
       </c>
       <c r="BH61" t="n">
-        <v>253192.96</v>
+        <v>445872</v>
       </c>
       <c r="BI61" t="n">
-        <v>403697.984</v>
-      </c>
-      <c r="BJ61" t="n">
-        <v>398455.008</v>
-      </c>
-      <c r="BK61" t="n">
-        <v>328024</v>
-      </c>
-      <c r="BL61" t="n">
-        <v>963614.912</v>
-      </c>
-      <c r="BM61" t="n">
-        <v>714854.0159999999</v>
-      </c>
-      <c r="BN61" t="n">
-        <v>658438.0159999999</v>
+        <v>339908</v>
       </c>
     </row>
     <row r="62">
@@ -12498,53 +11581,47 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-10882</v>
+        <v>-12277</v>
       </c>
       <c r="C62" t="n">
-        <v>-14104</v>
+        <v>-15052</v>
       </c>
       <c r="D62" t="n">
-        <v>-8639</v>
+        <v>-14897</v>
       </c>
       <c r="E62" t="n">
-        <v>-12277</v>
+        <v>-11338</v>
       </c>
       <c r="F62" t="n">
-        <v>-15052</v>
+        <v>-14443</v>
       </c>
       <c r="G62" t="n">
-        <v>-14897</v>
+        <v>-16608</v>
       </c>
       <c r="H62" t="n">
-        <v>-11338</v>
+        <v>-13198</v>
       </c>
       <c r="I62" t="n">
-        <v>-14443</v>
+        <v>-15520</v>
       </c>
       <c r="J62" t="n">
-        <v>-16608</v>
+        <v>-17520</v>
       </c>
       <c r="K62" t="n">
-        <v>-13198</v>
+        <v>-17520</v>
       </c>
       <c r="L62" t="n">
-        <v>-15520</v>
+        <v>-26146</v>
       </c>
       <c r="M62" t="n">
-        <v>-17520</v>
+        <v>-18431</v>
       </c>
       <c r="N62" t="n">
-        <v>-17520</v>
-      </c>
-      <c r="O62" t="n">
-        <v>-26146</v>
-      </c>
-      <c r="P62" t="n">
-        <v>-18431</v>
-      </c>
-      <c r="Q62" t="n">
         <v>62097</v>
       </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
@@ -12571,68 +11648,59 @@
       <c r="AO62" t="inlineStr"/>
       <c r="AP62" t="inlineStr"/>
       <c r="AQ62" t="inlineStr"/>
-      <c r="AR62" t="inlineStr"/>
-      <c r="AS62" t="inlineStr"/>
-      <c r="AT62" t="inlineStr"/>
+      <c r="AR62" t="n">
+        <v>-41692</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>-38223</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>-34054</v>
+      </c>
       <c r="AU62" t="n">
-        <v>-41692</v>
+        <v>-31928</v>
       </c>
       <c r="AV62" t="n">
-        <v>-38223</v>
+        <v>-37451</v>
       </c>
       <c r="AW62" t="n">
-        <v>-34054</v>
+        <v>-26830</v>
       </c>
       <c r="AX62" t="n">
-        <v>-31928</v>
+        <v>-31632</v>
       </c>
       <c r="AY62" t="n">
-        <v>-37451</v>
+        <v>-30636</v>
       </c>
       <c r="AZ62" t="n">
-        <v>-26830</v>
+        <v>-40968</v>
       </c>
       <c r="BA62" t="n">
-        <v>-31632</v>
+        <v>-39094</v>
       </c>
       <c r="BB62" t="n">
-        <v>-30636</v>
+        <v>-36139</v>
       </c>
       <c r="BC62" t="n">
-        <v>-40968</v>
+        <v>-35344.992</v>
       </c>
       <c r="BD62" t="n">
-        <v>-39094</v>
+        <v>-35835</v>
       </c>
       <c r="BE62" t="n">
-        <v>-2</v>
+        <v>-37775</v>
       </c>
       <c r="BF62" t="n">
-        <v>-36139</v>
+        <v>-36324</v>
       </c>
       <c r="BG62" t="n">
-        <v>-4</v>
+        <v>-43898</v>
       </c>
       <c r="BH62" t="n">
-        <v>-35344.992</v>
+        <v>-44289</v>
       </c>
       <c r="BI62" t="n">
-        <v>-35835</v>
-      </c>
-      <c r="BJ62" t="n">
-        <v>-37775</v>
-      </c>
-      <c r="BK62" t="n">
-        <v>-36324</v>
-      </c>
-      <c r="BL62" t="n">
-        <v>-290</v>
-      </c>
-      <c r="BM62" t="n">
-        <v>-16</v>
-      </c>
-      <c r="BN62" t="n">
-        <v>-43</v>
+        <v>-43131</v>
       </c>
     </row>
     <row r="63">
@@ -12642,53 +11710,47 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-17042</v>
+        <v>-17981</v>
       </c>
       <c r="C63" t="n">
-        <v>-17241</v>
+        <v>-18764</v>
       </c>
       <c r="D63" t="n">
-        <v>-25355</v>
+        <v>-18366</v>
       </c>
       <c r="E63" t="n">
-        <v>-17981</v>
+        <v>-21824</v>
       </c>
       <c r="F63" t="n">
-        <v>-18764</v>
+        <v>-23419</v>
       </c>
       <c r="G63" t="n">
-        <v>-18366</v>
+        <v>-22922</v>
       </c>
       <c r="H63" t="n">
-        <v>-21824</v>
+        <v>-22432</v>
       </c>
       <c r="I63" t="n">
-        <v>-23419</v>
+        <v>-27290</v>
       </c>
       <c r="J63" t="n">
-        <v>-22922</v>
+        <v>-26640</v>
       </c>
       <c r="K63" t="n">
-        <v>-22432</v>
+        <v>-26640</v>
       </c>
       <c r="L63" t="n">
-        <v>-27290</v>
+        <v>-22185</v>
       </c>
       <c r="M63" t="n">
-        <v>-26640</v>
+        <v>-20975</v>
       </c>
       <c r="N63" t="n">
-        <v>-26640</v>
-      </c>
-      <c r="O63" t="n">
-        <v>-22185</v>
-      </c>
-      <c r="P63" t="n">
-        <v>-20975</v>
-      </c>
-      <c r="Q63" t="n">
         <v>69800</v>
       </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
@@ -12715,68 +11777,59 @@
       <c r="AO63" t="inlineStr"/>
       <c r="AP63" t="inlineStr"/>
       <c r="AQ63" t="inlineStr"/>
-      <c r="AR63" t="inlineStr"/>
-      <c r="AS63" t="inlineStr"/>
-      <c r="AT63" t="inlineStr"/>
+      <c r="AR63" t="n">
+        <v>-31058</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>-29085</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>-40972</v>
+      </c>
       <c r="AU63" t="n">
-        <v>-31058</v>
+        <v>-28805</v>
       </c>
       <c r="AV63" t="n">
-        <v>-29085</v>
+        <v>-31466</v>
       </c>
       <c r="AW63" t="n">
-        <v>-40972</v>
+        <v>-30224</v>
       </c>
       <c r="AX63" t="n">
-        <v>-28805</v>
+        <v>-50168.008</v>
       </c>
       <c r="AY63" t="n">
-        <v>-31466</v>
+        <v>-27575</v>
       </c>
       <c r="AZ63" t="n">
-        <v>-30224</v>
+        <v>-32119</v>
       </c>
       <c r="BA63" t="n">
-        <v>-50168.008</v>
+        <v>-32381</v>
       </c>
       <c r="BB63" t="n">
-        <v>-27575</v>
+        <v>-36071</v>
       </c>
       <c r="BC63" t="n">
-        <v>-32119</v>
+        <v>-50259.008</v>
       </c>
       <c r="BD63" t="n">
-        <v>-32381</v>
+        <v>-38352</v>
       </c>
       <c r="BE63" t="n">
-        <v>-37046</v>
+        <v>-48074</v>
       </c>
       <c r="BF63" t="n">
-        <v>-36071</v>
+        <v>-39629</v>
       </c>
       <c r="BG63" t="n">
-        <v>-57004</v>
+        <v>-59964.008</v>
       </c>
       <c r="BH63" t="n">
-        <v>-50259.008</v>
+        <v>-39656</v>
       </c>
       <c r="BI63" t="n">
-        <v>-38352</v>
-      </c>
-      <c r="BJ63" t="n">
-        <v>-48074</v>
-      </c>
-      <c r="BK63" t="n">
-        <v>-39629</v>
-      </c>
-      <c r="BL63" t="n">
-        <v>-76087.008</v>
-      </c>
-      <c r="BM63" t="n">
-        <v>-48434</v>
-      </c>
-      <c r="BN63" t="n">
-        <v>-53366</v>
+        <v>-47643</v>
       </c>
     </row>
     <row r="64">
@@ -12793,24 +11846,24 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
       </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0</v>
-      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
@@ -12837,9 +11890,15 @@
       <c r="AO64" t="inlineStr"/>
       <c r="AP64" t="inlineStr"/>
       <c r="AQ64" t="inlineStr"/>
-      <c r="AR64" t="inlineStr"/>
-      <c r="AS64" t="inlineStr"/>
-      <c r="AT64" t="inlineStr"/>
+      <c r="AR64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>0</v>
+      </c>
       <c r="AU64" t="n">
         <v>0</v>
       </c>
@@ -12883,21 +11942,6 @@
         <v>0</v>
       </c>
       <c r="BI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12946,15 +11990,9 @@
       <c r="N65" t="n">
         <v>0</v>
       </c>
-      <c r="O65" t="n">
-        <v>0</v>
-      </c>
-      <c r="P65" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>0</v>
-      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
@@ -12981,9 +12019,15 @@
       <c r="AO65" t="inlineStr"/>
       <c r="AP65" t="inlineStr"/>
       <c r="AQ65" t="inlineStr"/>
-      <c r="AR65" t="inlineStr"/>
-      <c r="AS65" t="inlineStr"/>
-      <c r="AT65" t="inlineStr"/>
+      <c r="AR65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>0</v>
+      </c>
       <c r="AU65" t="n">
         <v>0</v>
       </c>
@@ -13027,21 +12071,6 @@
         <v>0</v>
       </c>
       <c r="BI65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13052,53 +12081,47 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-1475</v>
+        <v>-1294</v>
       </c>
       <c r="C66" t="n">
-        <v>-1322</v>
+        <v>-1268</v>
       </c>
       <c r="D66" t="n">
-        <v>2171</v>
+        <v>-961</v>
       </c>
       <c r="E66" t="n">
-        <v>-1294</v>
+        <v>-3048</v>
       </c>
       <c r="F66" t="n">
-        <v>-1268</v>
+        <v>-3951</v>
       </c>
       <c r="G66" t="n">
-        <v>-961</v>
+        <v>-2805</v>
       </c>
       <c r="H66" t="n">
-        <v>-3048</v>
+        <v>-1776</v>
       </c>
       <c r="I66" t="n">
-        <v>-3951</v>
+        <v>12110</v>
       </c>
       <c r="J66" t="n">
-        <v>-2805</v>
+        <v>-2039</v>
       </c>
       <c r="K66" t="n">
-        <v>-1776</v>
+        <v>-2039</v>
       </c>
       <c r="L66" t="n">
-        <v>12110</v>
+        <v>-2523</v>
       </c>
       <c r="M66" t="n">
-        <v>-2039</v>
+        <v>-2001</v>
       </c>
       <c r="N66" t="n">
-        <v>-2039</v>
-      </c>
-      <c r="O66" t="n">
-        <v>-2523</v>
-      </c>
-      <c r="P66" t="n">
-        <v>-2001</v>
-      </c>
-      <c r="Q66" t="n">
         <v>6563</v>
       </c>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
@@ -13125,68 +12148,59 @@
       <c r="AO66" t="inlineStr"/>
       <c r="AP66" t="inlineStr"/>
       <c r="AQ66" t="inlineStr"/>
-      <c r="AR66" t="inlineStr"/>
-      <c r="AS66" t="inlineStr"/>
-      <c r="AT66" t="inlineStr"/>
+      <c r="AR66" t="n">
+        <v>-7434</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>-4702</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>-5488</v>
+      </c>
       <c r="AU66" t="n">
-        <v>-7434</v>
+        <v>-3996</v>
       </c>
       <c r="AV66" t="n">
-        <v>-4702</v>
+        <v>-3278</v>
       </c>
       <c r="AW66" t="n">
-        <v>-5488</v>
+        <v>-1672</v>
       </c>
       <c r="AX66" t="n">
-        <v>-3996</v>
+        <v>-3641</v>
       </c>
       <c r="AY66" t="n">
-        <v>-3278</v>
+        <v>-4016</v>
       </c>
       <c r="AZ66" t="n">
-        <v>-1672</v>
+        <v>-3556</v>
       </c>
       <c r="BA66" t="n">
-        <v>-3641</v>
+        <v>-2334</v>
       </c>
       <c r="BB66" t="n">
-        <v>-4016</v>
+        <v>-4368</v>
       </c>
       <c r="BC66" t="n">
-        <v>-3556</v>
+        <v>-1969</v>
       </c>
       <c r="BD66" t="n">
-        <v>-2334</v>
+        <v>-7793</v>
       </c>
       <c r="BE66" t="n">
-        <v>-41725</v>
+        <v>-9907</v>
       </c>
       <c r="BF66" t="n">
-        <v>-4368</v>
+        <v>-1532</v>
       </c>
       <c r="BG66" t="n">
-        <v>-42275</v>
+        <v>-12181</v>
       </c>
       <c r="BH66" t="n">
-        <v>-1969</v>
+        <v>-4179</v>
       </c>
       <c r="BI66" t="n">
-        <v>-7793</v>
-      </c>
-      <c r="BJ66" t="n">
-        <v>-9907</v>
-      </c>
-      <c r="BK66" t="n">
-        <v>-1532</v>
-      </c>
-      <c r="BL66" t="n">
-        <v>-413139.008</v>
-      </c>
-      <c r="BM66" t="n">
-        <v>-39440</v>
-      </c>
-      <c r="BN66" t="n">
-        <v>-49448</v>
+        <v>-5181</v>
       </c>
     </row>
     <row r="67">
@@ -13234,15 +12248,9 @@
       <c r="N67" t="n">
         <v>0</v>
       </c>
-      <c r="O67" t="n">
-        <v>0</v>
-      </c>
-      <c r="P67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>0</v>
-      </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
@@ -13269,9 +12277,15 @@
       <c r="AO67" t="inlineStr"/>
       <c r="AP67" t="inlineStr"/>
       <c r="AQ67" t="inlineStr"/>
-      <c r="AR67" t="inlineStr"/>
-      <c r="AS67" t="inlineStr"/>
-      <c r="AT67" t="inlineStr"/>
+      <c r="AR67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>0</v>
+      </c>
       <c r="AU67" t="n">
         <v>0</v>
       </c>
@@ -13303,34 +12317,19 @@
         <v>0</v>
       </c>
       <c r="BE67" t="n">
-        <v>114326</v>
+        <v>0</v>
       </c>
       <c r="BF67" t="n">
         <v>0</v>
       </c>
       <c r="BG67" t="n">
-        <v>142727.008</v>
+        <v>0</v>
       </c>
       <c r="BH67" t="n">
         <v>0</v>
       </c>
       <c r="BI67" t="n">
         <v>0</v>
-      </c>
-      <c r="BJ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL67" t="n">
-        <v>65894.992</v>
-      </c>
-      <c r="BM67" t="n">
-        <v>88440</v>
-      </c>
-      <c r="BN67" t="n">
-        <v>83851</v>
       </c>
     </row>
     <row r="68">
@@ -13340,53 +12339,47 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-14177</v>
+        <v>-6822</v>
       </c>
       <c r="C68" t="n">
-        <v>-9106</v>
+        <v>-12811</v>
       </c>
       <c r="D68" t="n">
-        <v>-23232</v>
+        <v>-9360</v>
       </c>
       <c r="E68" t="n">
-        <v>-6822</v>
+        <v>-12428</v>
       </c>
       <c r="F68" t="n">
-        <v>-12811</v>
+        <v>-5826</v>
       </c>
       <c r="G68" t="n">
-        <v>-9360</v>
+        <v>-24345</v>
       </c>
       <c r="H68" t="n">
-        <v>-12428</v>
+        <v>-6484</v>
       </c>
       <c r="I68" t="n">
-        <v>-5826</v>
+        <v>8197</v>
       </c>
       <c r="J68" t="n">
-        <v>-24345</v>
+        <v>-8592</v>
       </c>
       <c r="K68" t="n">
-        <v>-6484</v>
+        <v>-8592</v>
       </c>
       <c r="L68" t="n">
-        <v>8197</v>
+        <v>-11722</v>
       </c>
       <c r="M68" t="n">
-        <v>-8592</v>
+        <v>-24108</v>
       </c>
       <c r="N68" t="n">
-        <v>-8592</v>
-      </c>
-      <c r="O68" t="n">
-        <v>-11722</v>
-      </c>
-      <c r="P68" t="n">
-        <v>-24108</v>
-      </c>
-      <c r="Q68" t="n">
         <v>44422</v>
       </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
@@ -13413,68 +12406,59 @@
       <c r="AO68" t="inlineStr"/>
       <c r="AP68" t="inlineStr"/>
       <c r="AQ68" t="inlineStr"/>
-      <c r="AR68" t="inlineStr"/>
-      <c r="AS68" t="inlineStr"/>
-      <c r="AT68" t="inlineStr"/>
+      <c r="AR68" t="n">
+        <v>-12649</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>-5077</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>-3256</v>
+      </c>
       <c r="AU68" t="n">
-        <v>-12649</v>
+        <v>46553</v>
       </c>
       <c r="AV68" t="n">
-        <v>-5077</v>
+        <v>67</v>
       </c>
       <c r="AW68" t="n">
-        <v>-3256</v>
+        <v>-2362</v>
       </c>
       <c r="AX68" t="n">
-        <v>46553</v>
+        <v>-9728</v>
       </c>
       <c r="AY68" t="n">
-        <v>67</v>
+        <v>9406</v>
       </c>
       <c r="AZ68" t="n">
-        <v>-2362</v>
+        <v>14726</v>
       </c>
       <c r="BA68" t="n">
-        <v>-9728</v>
+        <v>-43652</v>
       </c>
       <c r="BB68" t="n">
-        <v>9406</v>
+        <v>-58197</v>
       </c>
       <c r="BC68" t="n">
-        <v>14726</v>
+        <v>-66365.008</v>
       </c>
       <c r="BD68" t="n">
-        <v>-43652</v>
+        <v>-66123</v>
       </c>
       <c r="BE68" t="n">
-        <v>-138252</v>
+        <v>-76636</v>
       </c>
       <c r="BF68" t="n">
-        <v>-58197</v>
+        <v>-94834</v>
       </c>
       <c r="BG68" t="n">
-        <v>-170584</v>
+        <v>-43621.016</v>
       </c>
       <c r="BH68" t="n">
-        <v>-66365.008</v>
+        <v>-96697</v>
       </c>
       <c r="BI68" t="n">
-        <v>-66123</v>
-      </c>
-      <c r="BJ68" t="n">
-        <v>-76636</v>
-      </c>
-      <c r="BK68" t="n">
-        <v>-94834</v>
-      </c>
-      <c r="BL68" t="n">
-        <v>-163500</v>
-      </c>
-      <c r="BM68" t="n">
-        <v>-130238</v>
-      </c>
-      <c r="BN68" t="n">
-        <v>-97783</v>
+        <v>-85719</v>
       </c>
     </row>
     <row r="69">
@@ -13484,53 +12468,47 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>14351</v>
+        <v>15298</v>
       </c>
       <c r="C69" t="n">
-        <v>19786</v>
+        <v>13934</v>
       </c>
       <c r="D69" t="n">
-        <v>11403</v>
+        <v>8866</v>
       </c>
       <c r="E69" t="n">
-        <v>15298</v>
+        <v>15080</v>
       </c>
       <c r="F69" t="n">
-        <v>13934</v>
+        <v>12787</v>
       </c>
       <c r="G69" t="n">
-        <v>8866</v>
+        <v>13666</v>
       </c>
       <c r="H69" t="n">
-        <v>15080</v>
+        <v>14978</v>
       </c>
       <c r="I69" t="n">
-        <v>12787</v>
+        <v>9442</v>
       </c>
       <c r="J69" t="n">
-        <v>13666</v>
+        <v>16237</v>
       </c>
       <c r="K69" t="n">
-        <v>14978</v>
+        <v>16237</v>
       </c>
       <c r="L69" t="n">
-        <v>9442</v>
+        <v>16710</v>
       </c>
       <c r="M69" t="n">
-        <v>16237</v>
+        <v>23303</v>
       </c>
       <c r="N69" t="n">
-        <v>16237</v>
-      </c>
-      <c r="O69" t="n">
-        <v>16710</v>
-      </c>
-      <c r="P69" t="n">
-        <v>23303</v>
-      </c>
-      <c r="Q69" t="n">
         <v>-56250</v>
       </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
@@ -13557,68 +12535,59 @@
       <c r="AO69" t="inlineStr"/>
       <c r="AP69" t="inlineStr"/>
       <c r="AQ69" t="inlineStr"/>
-      <c r="AR69" t="inlineStr"/>
-      <c r="AS69" t="inlineStr"/>
-      <c r="AT69" t="inlineStr"/>
+      <c r="AR69" t="n">
+        <v>24325</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>27675</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>27378</v>
+      </c>
       <c r="AU69" t="n">
-        <v>24325</v>
+        <v>73138</v>
       </c>
       <c r="AV69" t="n">
-        <v>27675</v>
+        <v>18242</v>
       </c>
       <c r="AW69" t="n">
-        <v>27378</v>
+        <v>19026</v>
       </c>
       <c r="AX69" t="n">
-        <v>73138</v>
+        <v>16501</v>
       </c>
       <c r="AY69" t="n">
-        <v>18242</v>
+        <v>32372</v>
       </c>
       <c r="AZ69" t="n">
-        <v>19026</v>
+        <v>33523</v>
       </c>
       <c r="BA69" t="n">
-        <v>16501</v>
+        <v>71641</v>
       </c>
       <c r="BB69" t="n">
-        <v>32372</v>
+        <v>115251</v>
       </c>
       <c r="BC69" t="n">
-        <v>33523</v>
+        <v>75580.992</v>
       </c>
       <c r="BD69" t="n">
-        <v>71641</v>
+        <v>78097</v>
       </c>
       <c r="BE69" t="n">
-        <v>29946</v>
+        <v>84380</v>
       </c>
       <c r="BF69" t="n">
-        <v>115251</v>
+        <v>74445</v>
       </c>
       <c r="BG69" t="n">
-        <v>50660</v>
+        <v>89430.992</v>
       </c>
       <c r="BH69" t="n">
-        <v>75580.992</v>
+        <v>66424</v>
       </c>
       <c r="BI69" t="n">
-        <v>78097</v>
-      </c>
-      <c r="BJ69" t="n">
-        <v>84380</v>
-      </c>
-      <c r="BK69" t="n">
-        <v>74445</v>
-      </c>
-      <c r="BL69" t="n">
-        <v>54208</v>
-      </c>
-      <c r="BM69" t="n">
-        <v>34816</v>
-      </c>
-      <c r="BN69" t="n">
-        <v>32274</v>
+        <v>54870</v>
       </c>
     </row>
     <row r="70">
@@ -13628,53 +12597,47 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-28528</v>
+        <v>-22120</v>
       </c>
       <c r="C70" t="n">
-        <v>-28892</v>
+        <v>-26745</v>
       </c>
       <c r="D70" t="n">
-        <v>-34635</v>
+        <v>-18226</v>
       </c>
       <c r="E70" t="n">
-        <v>-22120</v>
+        <v>-27508</v>
       </c>
       <c r="F70" t="n">
-        <v>-26745</v>
+        <v>-18613</v>
       </c>
       <c r="G70" t="n">
-        <v>-18226</v>
+        <v>-38011</v>
       </c>
       <c r="H70" t="n">
-        <v>-27508</v>
+        <v>-21462</v>
       </c>
       <c r="I70" t="n">
-        <v>-18613</v>
+        <v>-1245</v>
       </c>
       <c r="J70" t="n">
-        <v>-38011</v>
+        <v>-24829</v>
       </c>
       <c r="K70" t="n">
-        <v>-21462</v>
+        <v>-24829</v>
       </c>
       <c r="L70" t="n">
-        <v>-1245</v>
+        <v>-28432</v>
       </c>
       <c r="M70" t="n">
-        <v>-24829</v>
+        <v>-47411</v>
       </c>
       <c r="N70" t="n">
-        <v>-24829</v>
-      </c>
-      <c r="O70" t="n">
-        <v>-28432</v>
-      </c>
-      <c r="P70" t="n">
-        <v>-47411</v>
-      </c>
-      <c r="Q70" t="n">
         <v>100672</v>
       </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
@@ -13701,68 +12664,59 @@
       <c r="AO70" t="inlineStr"/>
       <c r="AP70" t="inlineStr"/>
       <c r="AQ70" t="inlineStr"/>
-      <c r="AR70" t="inlineStr"/>
-      <c r="AS70" t="inlineStr"/>
-      <c r="AT70" t="inlineStr"/>
+      <c r="AR70" t="n">
+        <v>-36974</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>-32752</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>-30634</v>
+      </c>
       <c r="AU70" t="n">
-        <v>-36974</v>
+        <v>-26585</v>
       </c>
       <c r="AV70" t="n">
-        <v>-32752</v>
+        <v>-18175</v>
       </c>
       <c r="AW70" t="n">
-        <v>-30634</v>
+        <v>-21388</v>
       </c>
       <c r="AX70" t="n">
-        <v>-26585</v>
+        <v>-26229</v>
       </c>
       <c r="AY70" t="n">
-        <v>-18175</v>
+        <v>-22966</v>
       </c>
       <c r="AZ70" t="n">
-        <v>-21388</v>
+        <v>-18797</v>
       </c>
       <c r="BA70" t="n">
-        <v>-26229</v>
+        <v>-115293</v>
       </c>
       <c r="BB70" t="n">
-        <v>-22966</v>
+        <v>-173448</v>
       </c>
       <c r="BC70" t="n">
-        <v>-18797</v>
+        <v>-141946.048</v>
       </c>
       <c r="BD70" t="n">
-        <v>-115293</v>
+        <v>-144220</v>
       </c>
       <c r="BE70" t="n">
-        <v>-168198</v>
+        <v>-161016</v>
       </c>
       <c r="BF70" t="n">
-        <v>-173448</v>
+        <v>-169279.008</v>
       </c>
       <c r="BG70" t="n">
-        <v>-221244</v>
+        <v>-133051.968</v>
       </c>
       <c r="BH70" t="n">
-        <v>-141946.048</v>
+        <v>-163120.992</v>
       </c>
       <c r="BI70" t="n">
-        <v>-144220</v>
-      </c>
-      <c r="BJ70" t="n">
-        <v>-161016</v>
-      </c>
-      <c r="BK70" t="n">
-        <v>-169279.008</v>
-      </c>
-      <c r="BL70" t="n">
-        <v>-217708.016</v>
-      </c>
-      <c r="BM70" t="n">
-        <v>-165054</v>
-      </c>
-      <c r="BN70" t="n">
-        <v>-130057</v>
+        <v>-140588.992</v>
       </c>
     </row>
     <row r="71">
@@ -13772,13 +12726,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3557</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-2683</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -13792,15 +12746,9 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
@@ -13851,11 +12799,6 @@
       <c r="BG71" t="inlineStr"/>
       <c r="BH71" t="inlineStr"/>
       <c r="BI71" t="inlineStr"/>
-      <c r="BJ71" t="inlineStr"/>
-      <c r="BK71" t="inlineStr"/>
-      <c r="BL71" t="inlineStr"/>
-      <c r="BM71" t="inlineStr"/>
-      <c r="BN71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -13864,13 +12807,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>5955</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>529</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-6488</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -13884,15 +12827,9 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
@@ -13943,11 +12880,6 @@
       <c r="BG72" t="inlineStr"/>
       <c r="BH72" t="inlineStr"/>
       <c r="BI72" t="inlineStr"/>
-      <c r="BJ72" t="inlineStr"/>
-      <c r="BK72" t="inlineStr"/>
-      <c r="BL72" t="inlineStr"/>
-      <c r="BM72" t="inlineStr"/>
-      <c r="BN72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -13956,13 +12888,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-2398</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>-512</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>3805</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -13976,15 +12908,9 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
@@ -14035,11 +12961,6 @@
       <c r="BG73" t="inlineStr"/>
       <c r="BH73" t="inlineStr"/>
       <c r="BI73" t="inlineStr"/>
-      <c r="BJ73" t="inlineStr"/>
-      <c r="BK73" t="inlineStr"/>
-      <c r="BL73" t="inlineStr"/>
-      <c r="BM73" t="inlineStr"/>
-      <c r="BN73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -14048,53 +12969,47 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>81327</v>
+        <v>99971</v>
       </c>
       <c r="C74" t="n">
-        <v>90964</v>
+        <v>101326</v>
       </c>
       <c r="D74" t="n">
-        <v>88138.992</v>
+        <v>-22630</v>
       </c>
       <c r="E74" t="n">
-        <v>99971</v>
+        <v>77581.992</v>
       </c>
       <c r="F74" t="n">
-        <v>101326</v>
+        <v>133085</v>
       </c>
       <c r="G74" t="n">
-        <v>-22630</v>
+        <v>79641</v>
       </c>
       <c r="H74" t="n">
-        <v>77581.992</v>
+        <v>100425</v>
       </c>
       <c r="I74" t="n">
-        <v>133085</v>
+        <v>135223.008</v>
       </c>
       <c r="J74" t="n">
-        <v>79641</v>
+        <v>177210</v>
       </c>
       <c r="K74" t="n">
-        <v>100425</v>
+        <v>177210</v>
       </c>
       <c r="L74" t="n">
-        <v>135223.008</v>
+        <v>107837</v>
       </c>
       <c r="M74" t="n">
-        <v>177210</v>
+        <v>86274</v>
       </c>
       <c r="N74" t="n">
-        <v>177210</v>
-      </c>
-      <c r="O74" t="n">
-        <v>107837</v>
-      </c>
-      <c r="P74" t="n">
-        <v>86274</v>
-      </c>
-      <c r="Q74" t="n">
         <v>-371320.992</v>
       </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
@@ -14121,68 +13036,59 @@
       <c r="AO74" t="inlineStr"/>
       <c r="AP74" t="inlineStr"/>
       <c r="AQ74" t="inlineStr"/>
-      <c r="AR74" t="inlineStr"/>
-      <c r="AS74" t="inlineStr"/>
-      <c r="AT74" t="inlineStr"/>
+      <c r="AR74" t="n">
+        <v>80739</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>123766</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>112026.016</v>
+      </c>
       <c r="AU74" t="n">
-        <v>80739</v>
+        <v>203051.008</v>
       </c>
       <c r="AV74" t="n">
-        <v>123766</v>
+        <v>75137</v>
       </c>
       <c r="AW74" t="n">
-        <v>112026.016</v>
+        <v>132923</v>
       </c>
       <c r="AX74" t="n">
-        <v>203051.008</v>
+        <v>151685.984</v>
       </c>
       <c r="AY74" t="n">
-        <v>75137</v>
+        <v>250122</v>
       </c>
       <c r="AZ74" t="n">
-        <v>132923</v>
+        <v>162670</v>
       </c>
       <c r="BA74" t="n">
-        <v>151685.984</v>
+        <v>271328</v>
       </c>
       <c r="BB74" t="n">
-        <v>250122</v>
+        <v>198206</v>
       </c>
       <c r="BC74" t="n">
-        <v>162670</v>
+        <v>99255.03999999999</v>
       </c>
       <c r="BD74" t="n">
-        <v>271328</v>
+        <v>255595.008</v>
       </c>
       <c r="BE74" t="n">
-        <v>368144</v>
+        <v>226063.008</v>
       </c>
       <c r="BF74" t="n">
-        <v>198206</v>
+        <v>155704.992</v>
       </c>
       <c r="BG74" t="n">
-        <v>819369.024</v>
+        <v>186574.976</v>
       </c>
       <c r="BH74" t="n">
-        <v>99255.03999999999</v>
+        <v>261051.008</v>
       </c>
       <c r="BI74" t="n">
-        <v>255595.008</v>
-      </c>
-      <c r="BJ74" t="n">
-        <v>226063.008</v>
-      </c>
-      <c r="BK74" t="n">
-        <v>155704.992</v>
-      </c>
-      <c r="BL74" t="n">
-        <v>376494.016</v>
-      </c>
-      <c r="BM74" t="n">
-        <v>585166.0159999999</v>
-      </c>
-      <c r="BN74" t="n">
-        <v>541649.024</v>
+        <v>158234</v>
       </c>
     </row>
     <row r="75">
@@ -14192,53 +13098,47 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-24625</v>
+        <v>-31521</v>
       </c>
       <c r="C75" t="n">
-        <v>-32454</v>
+        <v>-31307</v>
       </c>
       <c r="D75" t="n">
-        <v>-26653</v>
+        <v>21125</v>
       </c>
       <c r="E75" t="n">
-        <v>-31521</v>
+        <v>-24265</v>
       </c>
       <c r="F75" t="n">
-        <v>-31307</v>
+        <v>-45793</v>
       </c>
       <c r="G75" t="n">
-        <v>21125</v>
+        <v>-27672</v>
       </c>
       <c r="H75" t="n">
-        <v>-24265</v>
+        <v>-29676</v>
       </c>
       <c r="I75" t="n">
-        <v>-45793</v>
+        <v>-28305</v>
       </c>
       <c r="J75" t="n">
-        <v>-27672</v>
+        <v>-40804</v>
       </c>
       <c r="K75" t="n">
-        <v>-29676</v>
+        <v>-40804</v>
       </c>
       <c r="L75" t="n">
-        <v>-28305</v>
+        <v>-29861</v>
       </c>
       <c r="M75" t="n">
-        <v>-40804</v>
+        <v>-28828</v>
       </c>
       <c r="N75" t="n">
-        <v>-40804</v>
-      </c>
-      <c r="O75" t="n">
-        <v>-29861</v>
-      </c>
-      <c r="P75" t="n">
-        <v>-28828</v>
-      </c>
-      <c r="Q75" t="n">
         <v>99493</v>
       </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
@@ -14265,68 +13165,59 @@
       <c r="AO75" t="inlineStr"/>
       <c r="AP75" t="inlineStr"/>
       <c r="AQ75" t="inlineStr"/>
-      <c r="AR75" t="inlineStr"/>
-      <c r="AS75" t="inlineStr"/>
-      <c r="AT75" t="inlineStr"/>
+      <c r="AR75" t="n">
+        <v>-31027</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>-2509</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>-34365</v>
+      </c>
       <c r="AU75" t="n">
-        <v>-31027</v>
+        <v>-85</v>
       </c>
       <c r="AV75" t="n">
-        <v>-2509</v>
+        <v>-400</v>
       </c>
       <c r="AW75" t="n">
-        <v>-34365</v>
+        <v>-17243</v>
       </c>
       <c r="AX75" t="n">
-        <v>-85</v>
+        <v>-64308</v>
       </c>
       <c r="AY75" t="n">
-        <v>-400</v>
+        <v>-52521</v>
       </c>
       <c r="AZ75" t="n">
-        <v>-17243</v>
+        <v>-137031.008</v>
       </c>
       <c r="BA75" t="n">
-        <v>-64308</v>
+        <v>-115118</v>
       </c>
       <c r="BB75" t="n">
-        <v>-52521</v>
+        <v>-66458</v>
       </c>
       <c r="BC75" t="n">
-        <v>-137031.008</v>
+        <v>-37609.984</v>
       </c>
       <c r="BD75" t="n">
-        <v>-115118</v>
+        <v>-60818</v>
       </c>
       <c r="BE75" t="n">
-        <v>-25846</v>
+        <v>-66481</v>
       </c>
       <c r="BF75" t="n">
-        <v>-66458</v>
+        <v>-44770</v>
       </c>
       <c r="BG75" t="n">
-        <v>-103900</v>
+        <v>-36630.008</v>
       </c>
       <c r="BH75" t="n">
-        <v>-37609.984</v>
+        <v>-330032.992</v>
       </c>
       <c r="BI75" t="n">
-        <v>-60818</v>
-      </c>
-      <c r="BJ75" t="n">
-        <v>-66481</v>
-      </c>
-      <c r="BK75" t="n">
-        <v>-44770</v>
-      </c>
-      <c r="BL75" t="n">
-        <v>-158642.016</v>
-      </c>
-      <c r="BM75" t="n">
-        <v>-132447</v>
-      </c>
-      <c r="BN75" t="n">
-        <v>-127074</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76">
@@ -14336,53 +13227,47 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-2701</v>
+        <v>-2440</v>
       </c>
       <c r="C76" t="n">
-        <v>1564</v>
+        <v>-3323</v>
       </c>
       <c r="D76" t="n">
-        <v>-763</v>
+        <v>-13275</v>
       </c>
       <c r="E76" t="n">
-        <v>-2440</v>
+        <v>-1305</v>
       </c>
       <c r="F76" t="n">
-        <v>-3323</v>
+        <v>726</v>
       </c>
       <c r="G76" t="n">
-        <v>-13275</v>
+        <v>1147</v>
       </c>
       <c r="H76" t="n">
-        <v>-1305</v>
+        <v>-3972</v>
       </c>
       <c r="I76" t="n">
-        <v>726</v>
+        <v>-13083</v>
       </c>
       <c r="J76" t="n">
-        <v>1147</v>
+        <v>-19526</v>
       </c>
       <c r="K76" t="n">
-        <v>-3972</v>
+        <v>-19526</v>
       </c>
       <c r="L76" t="n">
-        <v>-13083</v>
+        <v>-4047</v>
       </c>
       <c r="M76" t="n">
-        <v>-19526</v>
+        <v>16</v>
       </c>
       <c r="N76" t="n">
-        <v>-19526</v>
-      </c>
-      <c r="O76" t="n">
-        <v>-4047</v>
-      </c>
-      <c r="P76" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q76" t="n">
         <v>23557</v>
       </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
@@ -14409,68 +13294,59 @@
       <c r="AO76" t="inlineStr"/>
       <c r="AP76" t="inlineStr"/>
       <c r="AQ76" t="inlineStr"/>
-      <c r="AR76" t="inlineStr"/>
-      <c r="AS76" t="inlineStr"/>
-      <c r="AT76" t="inlineStr"/>
+      <c r="AR76" t="n">
+        <v>1636</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>-44476</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>8353</v>
+      </c>
       <c r="AU76" t="n">
-        <v>1636</v>
+        <v>-71812</v>
       </c>
       <c r="AV76" t="n">
-        <v>-44476</v>
+        <v>-27347</v>
       </c>
       <c r="AW76" t="n">
-        <v>8353</v>
+        <v>-30369</v>
       </c>
       <c r="AX76" t="n">
-        <v>-71812</v>
+        <v>22254</v>
       </c>
       <c r="AY76" t="n">
-        <v>-27347</v>
+        <v>-35660</v>
       </c>
       <c r="AZ76" t="n">
-        <v>-30369</v>
+        <v>78700</v>
       </c>
       <c r="BA76" t="n">
-        <v>22254</v>
+        <v>19451</v>
       </c>
       <c r="BB76" t="n">
-        <v>-35660</v>
+        <v>-4639</v>
       </c>
       <c r="BC76" t="n">
-        <v>78700</v>
+        <v>12607</v>
       </c>
       <c r="BD76" t="n">
-        <v>19451</v>
+        <v>-24650</v>
       </c>
       <c r="BE76" t="n">
-        <v>7938</v>
+        <v>-10941</v>
       </c>
       <c r="BF76" t="n">
-        <v>-4639</v>
+        <v>-8213</v>
       </c>
       <c r="BG76" t="n">
-        <v>-10493</v>
+        <v>-28494</v>
       </c>
       <c r="BH76" t="n">
-        <v>12607</v>
+        <v>248780</v>
       </c>
       <c r="BI76" t="n">
-        <v>-24650</v>
-      </c>
-      <c r="BJ76" t="n">
-        <v>-10941</v>
-      </c>
-      <c r="BK76" t="n">
-        <v>-8213</v>
-      </c>
-      <c r="BL76" t="n">
-        <v>111294</v>
-      </c>
-      <c r="BM76" t="n">
-        <v>624</v>
-      </c>
-      <c r="BN76" t="n">
-        <v>17611</v>
+        <v>-51793</v>
       </c>
     </row>
     <row r="77">
@@ -14500,15 +13376,9 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
@@ -14559,11 +13429,6 @@
       <c r="BG77" t="inlineStr"/>
       <c r="BH77" t="inlineStr"/>
       <c r="BI77" t="inlineStr"/>
-      <c r="BJ77" t="inlineStr"/>
-      <c r="BK77" t="inlineStr"/>
-      <c r="BL77" t="inlineStr"/>
-      <c r="BM77" t="inlineStr"/>
-      <c r="BN77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -14572,35 +13437,29 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>7204</v>
       </c>
       <c r="D78" t="n">
-        <v>7208</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>6916</v>
       </c>
       <c r="F78" t="n">
-        <v>7204</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>6916</v>
       </c>
       <c r="H78" t="n">
-        <v>6916</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>6916</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
@@ -14651,11 +13510,6 @@
       <c r="BG78" t="inlineStr"/>
       <c r="BH78" t="inlineStr"/>
       <c r="BI78" t="inlineStr"/>
-      <c r="BJ78" t="inlineStr"/>
-      <c r="BK78" t="inlineStr"/>
-      <c r="BL78" t="inlineStr"/>
-      <c r="BM78" t="inlineStr"/>
-      <c r="BN78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -14718,26 +13572,11 @@
       <c r="BB79" t="inlineStr"/>
       <c r="BC79" t="inlineStr"/>
       <c r="BD79" t="inlineStr"/>
-      <c r="BE79" t="n">
-        <v>-88853</v>
-      </c>
+      <c r="BE79" t="inlineStr"/>
       <c r="BF79" t="inlineStr"/>
-      <c r="BG79" t="n">
-        <v>-234448</v>
-      </c>
+      <c r="BG79" t="inlineStr"/>
       <c r="BH79" t="inlineStr"/>
       <c r="BI79" t="inlineStr"/>
-      <c r="BJ79" t="inlineStr"/>
-      <c r="BK79" t="inlineStr"/>
-      <c r="BL79" t="n">
-        <v>-142688.992</v>
-      </c>
-      <c r="BM79" t="n">
-        <v>-153260</v>
-      </c>
-      <c r="BN79" t="n">
-        <v>-157552.992</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -14746,53 +13585,47 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>61201</v>
+        <v>66010</v>
       </c>
       <c r="C80" t="n">
-        <v>60074</v>
+        <v>73900</v>
       </c>
       <c r="D80" t="n">
-        <v>67931</v>
+        <v>-14780</v>
       </c>
       <c r="E80" t="n">
-        <v>66010</v>
+        <v>58928</v>
       </c>
       <c r="F80" t="n">
-        <v>73900</v>
+        <v>88018</v>
       </c>
       <c r="G80" t="n">
-        <v>-14780</v>
+        <v>60032</v>
       </c>
       <c r="H80" t="n">
-        <v>58928</v>
+        <v>66777</v>
       </c>
       <c r="I80" t="n">
-        <v>88018</v>
+        <v>86918.984</v>
       </c>
       <c r="J80" t="n">
-        <v>60032</v>
+        <v>116880</v>
       </c>
       <c r="K80" t="n">
-        <v>66777</v>
+        <v>116880</v>
       </c>
       <c r="L80" t="n">
-        <v>86918.984</v>
+        <v>73929</v>
       </c>
       <c r="M80" t="n">
-        <v>116880</v>
+        <v>57462</v>
       </c>
       <c r="N80" t="n">
-        <v>116880</v>
-      </c>
-      <c r="O80" t="n">
-        <v>73929</v>
-      </c>
-      <c r="P80" t="n">
-        <v>57462</v>
-      </c>
-      <c r="Q80" t="n">
         <v>-248271.008</v>
       </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
@@ -14819,68 +13652,59 @@
       <c r="AO80" t="inlineStr"/>
       <c r="AP80" t="inlineStr"/>
       <c r="AQ80" t="inlineStr"/>
-      <c r="AR80" t="inlineStr"/>
-      <c r="AS80" t="inlineStr"/>
-      <c r="AT80" t="inlineStr"/>
+      <c r="AR80" t="n">
+        <v>51348</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>76781</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>86013.984</v>
+      </c>
       <c r="AU80" t="n">
-        <v>51348</v>
+        <v>131154</v>
       </c>
       <c r="AV80" t="n">
-        <v>76781</v>
+        <v>47390</v>
       </c>
       <c r="AW80" t="n">
-        <v>86013.984</v>
+        <v>85311</v>
       </c>
       <c r="AX80" t="n">
-        <v>131154</v>
+        <v>109632.008</v>
       </c>
       <c r="AY80" t="n">
-        <v>47390</v>
+        <v>161940.992</v>
       </c>
       <c r="AZ80" t="n">
-        <v>85311</v>
+        <v>104339</v>
       </c>
       <c r="BA80" t="n">
-        <v>109632.008</v>
+        <v>175660.992</v>
       </c>
       <c r="BB80" t="n">
-        <v>161940.992</v>
+        <v>127109</v>
       </c>
       <c r="BC80" t="n">
-        <v>104339</v>
+        <v>74252</v>
       </c>
       <c r="BD80" t="n">
-        <v>175660.992</v>
+        <v>170127.008</v>
       </c>
       <c r="BE80" t="n">
-        <v>217330</v>
+        <v>148640.992</v>
       </c>
       <c r="BF80" t="n">
-        <v>127109</v>
+        <v>102722</v>
       </c>
       <c r="BG80" t="n">
-        <v>470528</v>
+        <v>121450.992</v>
       </c>
       <c r="BH80" t="n">
-        <v>74252</v>
+        <v>179798</v>
       </c>
       <c r="BI80" t="n">
-        <v>170127.008</v>
-      </c>
-      <c r="BJ80" t="n">
-        <v>148640.992</v>
-      </c>
-      <c r="BK80" t="n">
-        <v>102722</v>
-      </c>
-      <c r="BL80" t="n">
-        <v>186456.96</v>
-      </c>
-      <c r="BM80" t="n">
-        <v>300080.992</v>
-      </c>
-      <c r="BN80" t="n">
-        <v>274632.992</v>
+        <v>106452</v>
       </c>
     </row>
   </sheetData>
